--- a/Phishing URL Prediction Using LSTM/Final_Output_Dense_LSTM.xlsx
+++ b/Phishing URL Prediction Using LSTM/Final_Output_Dense_LSTM.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="993" firstSheet="0" activeTab="3"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="990" firstSheet="0" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="LSTMv1_1" sheetId="1" state="visible" r:id="rId2"/>
@@ -196,7 +196,7 @@
   <dimension ref="A1:K97"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C5" activeCellId="0" sqref="C5"/>
+      <selection pane="topLeft" activeCell="B3" activeCellId="0" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -270,16 +270,16 @@
         <v>13</v>
       </c>
       <c r="H2" s="0" t="n">
-        <v>0.433023409843445</v>
+        <v>0.412517097234726</v>
       </c>
       <c r="I2" s="0" t="n">
-        <v>0.883000016212463</v>
+        <v>0.90149998664856</v>
       </c>
       <c r="J2" s="0" t="n">
-        <v>0.426244393110275</v>
+        <v>0.408705465316772</v>
       </c>
       <c r="K2" s="0" t="n">
-        <v>0.885375022888184</v>
+        <v>0.903124988079071</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -305,16 +305,16 @@
         <v>14</v>
       </c>
       <c r="H3" s="0" t="n">
-        <v>0.386775716543198</v>
+        <v>0.370432971954346</v>
       </c>
       <c r="I3" s="0" t="n">
-        <v>0.912500023841858</v>
+        <v>0.922500014305115</v>
       </c>
       <c r="J3" s="0" t="n">
-        <v>0.381762321710586</v>
+        <v>0.3653078789711</v>
       </c>
       <c r="K3" s="0" t="n">
-        <v>0.919624984264374</v>
+        <v>0.927124977111816</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -340,16 +340,16 @@
         <v>13</v>
       </c>
       <c r="H4" s="0" t="n">
-        <v>0.247513937950134</v>
+        <v>0.264869799137115</v>
       </c>
       <c r="I4" s="0" t="n">
-        <v>0.925499975681305</v>
+        <v>0.927999973297119</v>
       </c>
       <c r="J4" s="0" t="n">
-        <v>0.235794998645782</v>
+        <v>0.258513344883919</v>
       </c>
       <c r="K4" s="0" t="n">
-        <v>0.940374970436096</v>
+        <v>0.936124980449676</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -375,16 +375,16 @@
         <v>14</v>
       </c>
       <c r="H5" s="0" t="n">
-        <v>0.234448763370514</v>
+        <v>0.246788528084755</v>
       </c>
       <c r="I5" s="0" t="n">
-        <v>0.935500025749206</v>
+        <v>0.935999989509582</v>
       </c>
       <c r="J5" s="0" t="n">
-        <v>0.222888037085533</v>
+        <v>0.23708651471138</v>
       </c>
       <c r="K5" s="0" t="n">
-        <v>0.945375025272369</v>
+        <v>0.938499987125397</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -410,16 +410,16 @@
         <v>13</v>
       </c>
       <c r="H6" s="0" t="n">
-        <v>0.436069645643234</v>
+        <v>0.389471467494965</v>
       </c>
       <c r="I6" s="0" t="n">
-        <v>0.891499996185303</v>
+        <v>0.916000008583069</v>
       </c>
       <c r="J6" s="0" t="n">
-        <v>0.434227383136749</v>
+        <v>0.385220004320145</v>
       </c>
       <c r="K6" s="0" t="n">
-        <v>0.883499979972839</v>
+        <v>0.919624984264374</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -445,16 +445,16 @@
         <v>14</v>
       </c>
       <c r="H7" s="0" t="n">
-        <v>0.384537960529327</v>
+        <v>0.40204194021225</v>
       </c>
       <c r="I7" s="0" t="n">
-        <v>0.912999987602234</v>
+        <v>0.898000001907349</v>
       </c>
       <c r="J7" s="0" t="n">
-        <v>0.378941513776779</v>
+        <v>0.392336673021316</v>
       </c>
       <c r="K7" s="0" t="n">
-        <v>0.917375028133392</v>
+        <v>0.908749997615814</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -480,16 +480,16 @@
         <v>13</v>
       </c>
       <c r="H8" s="0" t="n">
-        <v>0.235467300653458</v>
+        <v>0.226490052461624</v>
       </c>
       <c r="I8" s="0" t="n">
-        <v>0.92849999666214</v>
+        <v>0.934499979019165</v>
       </c>
       <c r="J8" s="0" t="n">
-        <v>0.225082236051559</v>
+        <v>0.216662131309509</v>
       </c>
       <c r="K8" s="0" t="n">
-        <v>0.937624990940094</v>
+        <v>0.94462502002716</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -515,16 +515,16 @@
         <v>14</v>
       </c>
       <c r="H9" s="0" t="n">
-        <v>0.255114209890366</v>
+        <v>0.229183855175972</v>
       </c>
       <c r="I9" s="0" t="n">
-        <v>0.914499998092651</v>
+        <v>0.92849999666214</v>
       </c>
       <c r="J9" s="0" t="n">
-        <v>0.240194099068642</v>
+        <v>0.217030295848846</v>
       </c>
       <c r="K9" s="0" t="n">
-        <v>0.928125023841858</v>
+        <v>0.942125022411346</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -550,16 +550,16 @@
         <v>13</v>
       </c>
       <c r="H10" s="0" t="n">
-        <v>0.387429189682007</v>
+        <v>0.380602172136307</v>
       </c>
       <c r="I10" s="0" t="n">
-        <v>0.905499994754791</v>
+        <v>0.911499977111816</v>
       </c>
       <c r="J10" s="0" t="n">
-        <v>0.37964684009552</v>
+        <v>0.374454534769058</v>
       </c>
       <c r="K10" s="0" t="n">
-        <v>0.910624980926514</v>
+        <v>0.917750000953674</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -585,16 +585,16 @@
         <v>14</v>
       </c>
       <c r="H11" s="0" t="n">
-        <v>0.383722728252411</v>
+        <v>0.386687563896179</v>
       </c>
       <c r="I11" s="0" t="n">
-        <v>0.90499997138977</v>
+        <v>0.901000022888184</v>
       </c>
       <c r="J11" s="0" t="n">
-        <v>0.376883611917496</v>
+        <v>0.377593578100204</v>
       </c>
       <c r="K11" s="0" t="n">
-        <v>0.915624976158142</v>
+        <v>0.908500015735626</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -620,16 +620,16 @@
         <v>13</v>
       </c>
       <c r="H12" s="0" t="n">
-        <v>0.257087224960327</v>
+        <v>0.262571865558624</v>
       </c>
       <c r="I12" s="0" t="n">
-        <v>0.927500009536743</v>
+        <v>0.92849999666214</v>
       </c>
       <c r="J12" s="0" t="n">
-        <v>0.24752866089344</v>
+        <v>0.252626984119415</v>
       </c>
       <c r="K12" s="0" t="n">
-        <v>0.936625003814697</v>
+        <v>0.935374975204468</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -655,16 +655,16 @@
         <v>14</v>
       </c>
       <c r="H13" s="0" t="n">
-        <v>0.23544774210453</v>
+        <v>0.240513578534126</v>
       </c>
       <c r="I13" s="0" t="n">
-        <v>0.933499991893768</v>
+        <v>0.933000028133392</v>
       </c>
       <c r="J13" s="0" t="n">
-        <v>0.225190940260887</v>
+        <v>0.231647816896439</v>
       </c>
       <c r="K13" s="0" t="n">
-        <v>0.945124983787537</v>
+        <v>0.939000010490418</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -690,16 +690,16 @@
         <v>13</v>
       </c>
       <c r="H14" s="0" t="n">
-        <v>0.427969017028809</v>
+        <v>0.459597669124603</v>
       </c>
       <c r="I14" s="0" t="n">
-        <v>0.900499999523163</v>
+        <v>0.884500026702881</v>
       </c>
       <c r="J14" s="0" t="n">
-        <v>0.422919467926025</v>
+        <v>0.452898534059525</v>
       </c>
       <c r="K14" s="0" t="n">
-        <v>0.902125000953674</v>
+        <v>0.897125005722046</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -725,16 +725,16 @@
         <v>14</v>
       </c>
       <c r="H15" s="0" t="n">
-        <v>0.396808595657349</v>
+        <v>0.423670615196228</v>
       </c>
       <c r="I15" s="0" t="n">
-        <v>0.911499977111816</v>
+        <v>0.879499971866608</v>
       </c>
       <c r="J15" s="0" t="n">
-        <v>0.389835010051727</v>
+        <v>0.416685059070587</v>
       </c>
       <c r="K15" s="0" t="n">
-        <v>0.916374981403351</v>
+        <v>0.887750029563904</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -760,16 +760,16 @@
         <v>13</v>
       </c>
       <c r="H16" s="0" t="n">
-        <v>0.247750497817993</v>
+        <v>0.231570326566696</v>
       </c>
       <c r="I16" s="0" t="n">
-        <v>0.935500025749206</v>
+        <v>0.931999981403351</v>
       </c>
       <c r="J16" s="0" t="n">
-        <v>0.237897604703903</v>
+        <v>0.224281472444534</v>
       </c>
       <c r="K16" s="0" t="n">
-        <v>0.93987500667572</v>
+        <v>0.942125022411346</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -795,16 +795,16 @@
         <v>14</v>
       </c>
       <c r="H17" s="0" t="n">
-        <v>0.258284211158752</v>
+        <v>0.346959132432938</v>
       </c>
       <c r="I17" s="0" t="n">
-        <v>0.915499985218048</v>
+        <v>0.881500005722046</v>
       </c>
       <c r="J17" s="0" t="n">
-        <v>0.249286936283112</v>
+        <v>0.339424755573273</v>
       </c>
       <c r="K17" s="0" t="n">
-        <v>0.927500009536743</v>
+        <v>0.886874973773956</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -830,16 +830,16 @@
         <v>13</v>
       </c>
       <c r="H18" s="0" t="n">
-        <v>0.472377442598343</v>
+        <v>0.442293125629425</v>
       </c>
       <c r="I18" s="0" t="n">
-        <v>0.83899998664856</v>
+        <v>0.892000019550324</v>
       </c>
       <c r="J18" s="0" t="n">
-        <v>0.46640928030014</v>
+        <v>0.435516690254211</v>
       </c>
       <c r="K18" s="0" t="n">
-        <v>0.848249971866608</v>
+        <v>0.901374995708466</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -865,16 +865,16 @@
         <v>14</v>
       </c>
       <c r="H19" s="0" t="n">
-        <v>0.41564815735817</v>
+        <v>0.420053973913193</v>
       </c>
       <c r="I19" s="0" t="n">
-        <v>0.904500007629394</v>
+        <v>0.903500020503998</v>
       </c>
       <c r="J19" s="0" t="n">
-        <v>0.411132951259613</v>
+        <v>0.41495116019249</v>
       </c>
       <c r="K19" s="0" t="n">
-        <v>0.909124970436096</v>
+        <v>0.908749997615814</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -900,16 +900,16 @@
         <v>13</v>
       </c>
       <c r="H20" s="0" t="n">
-        <v>0.297486290931702</v>
+        <v>0.294058828115463</v>
       </c>
       <c r="I20" s="0" t="n">
-        <v>0.90499997138977</v>
+        <v>0.919000029563904</v>
       </c>
       <c r="J20" s="0" t="n">
-        <v>0.284616276860237</v>
+        <v>0.284634093403816</v>
       </c>
       <c r="K20" s="0" t="n">
-        <v>0.919624984264374</v>
+        <v>0.926249980926514</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -935,16 +935,16 @@
         <v>14</v>
       </c>
       <c r="H21" s="0" t="n">
-        <v>0.244153446912765</v>
+        <v>0.250011987447739</v>
       </c>
       <c r="I21" s="0" t="n">
-        <v>0.932500004768372</v>
+        <v>0.933000028133392</v>
       </c>
       <c r="J21" s="0" t="n">
-        <v>0.235430430650711</v>
+        <v>0.239032277703285</v>
       </c>
       <c r="K21" s="0" t="n">
-        <v>0.940750002861023</v>
+        <v>0.938499987125397</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -970,16 +970,16 @@
         <v>13</v>
       </c>
       <c r="H22" s="0" t="n">
-        <v>0.466363265991211</v>
+        <v>0.479139414310455</v>
       </c>
       <c r="I22" s="0" t="n">
-        <v>0.888499975204468</v>
+        <v>0.877499997615814</v>
       </c>
       <c r="J22" s="0" t="n">
-        <v>0.465028086185455</v>
+        <v>0.474372860193253</v>
       </c>
       <c r="K22" s="0" t="n">
-        <v>0.883499979972839</v>
+        <v>0.881250023841858</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1005,16 +1005,16 @@
         <v>14</v>
       </c>
       <c r="H23" s="0" t="n">
-        <v>0.448161007881164</v>
+        <v>0.41262869644165</v>
       </c>
       <c r="I23" s="0" t="n">
-        <v>0.870000004768372</v>
+        <v>0.903999984264374</v>
       </c>
       <c r="J23" s="0" t="n">
-        <v>0.442947784185409</v>
+        <v>0.409616630554199</v>
       </c>
       <c r="K23" s="0" t="n">
-        <v>0.875124990940094</v>
+        <v>0.909874975681305</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1040,16 +1040,16 @@
         <v>13</v>
       </c>
       <c r="H24" s="0" t="n">
-        <v>0.247395498275757</v>
+        <v>0.261644168376923</v>
       </c>
       <c r="I24" s="0" t="n">
-        <v>0.92849999666214</v>
+        <v>0.925999999046326</v>
       </c>
       <c r="J24" s="0" t="n">
-        <v>0.237808319926262</v>
+        <v>0.254465312242508</v>
       </c>
       <c r="K24" s="0" t="n">
-        <v>0.936375021934509</v>
+        <v>0.932624995708466</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1075,16 +1075,16 @@
         <v>14</v>
       </c>
       <c r="H25" s="0" t="n">
-        <v>0.240859686732292</v>
+        <v>0.236294156551361</v>
       </c>
       <c r="I25" s="0" t="n">
-        <v>0.930999994277954</v>
+        <v>0.927500009536743</v>
       </c>
       <c r="J25" s="0" t="n">
-        <v>0.230482866644859</v>
+        <v>0.225667674183845</v>
       </c>
       <c r="K25" s="0" t="n">
-        <v>0.937375009059906</v>
+        <v>0.935874998569488</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1110,16 +1110,16 @@
         <v>13</v>
       </c>
       <c r="H26" s="0" t="n">
-        <v>0.431155440568924</v>
+        <v>0.393809029102325</v>
       </c>
       <c r="I26" s="0" t="n">
-        <v>0.879999995231628</v>
+        <v>0.91100001335144</v>
       </c>
       <c r="J26" s="0" t="n">
-        <v>0.42223980307579</v>
+        <v>0.389662449598312</v>
       </c>
       <c r="K26" s="0" t="n">
-        <v>0.887125015258789</v>
+        <v>0.915624976158142</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1145,16 +1145,16 @@
         <v>14</v>
       </c>
       <c r="H27" s="0" t="n">
-        <v>0.362974364995956</v>
+        <v>0.381275106906891</v>
       </c>
       <c r="I27" s="0" t="n">
-        <v>0.917500019073486</v>
+        <v>0.918500006198883</v>
       </c>
       <c r="J27" s="0" t="n">
-        <v>0.358535204648971</v>
+        <v>0.376522396087646</v>
       </c>
       <c r="K27" s="0" t="n">
-        <v>0.9200000166893</v>
+        <v>0.920374989509582</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1180,16 +1180,16 @@
         <v>13</v>
       </c>
       <c r="H28" s="0" t="n">
-        <v>0.287712203621864</v>
+        <v>0.249917350411415</v>
       </c>
       <c r="I28" s="0" t="n">
-        <v>0.91049998998642</v>
+        <v>0.930499970912933</v>
       </c>
       <c r="J28" s="0" t="n">
-        <v>0.272918474793434</v>
+        <v>0.238774731636047</v>
       </c>
       <c r="K28" s="0" t="n">
-        <v>0.921500027179718</v>
+        <v>0.942499995231628</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1215,16 +1215,16 @@
         <v>14</v>
       </c>
       <c r="H29" s="0" t="n">
-        <v>0.281763467550278</v>
+        <v>0.231083288550377</v>
       </c>
       <c r="I29" s="0" t="n">
-        <v>0.912000000476837</v>
+        <v>0.931500017642975</v>
       </c>
       <c r="J29" s="0" t="n">
-        <v>0.26801900267601</v>
+        <v>0.216351695179939</v>
       </c>
       <c r="K29" s="0" t="n">
-        <v>0.924499988555908</v>
+        <v>0.943000018596649</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1250,16 +1250,16 @@
         <v>13</v>
       </c>
       <c r="H30" s="0" t="n">
-        <v>0.461353980064392</v>
+        <v>0.421002249479294</v>
       </c>
       <c r="I30" s="0" t="n">
-        <v>0.891499996185303</v>
+        <v>0.897000014781952</v>
       </c>
       <c r="J30" s="0" t="n">
-        <v>0.455643849134445</v>
+        <v>0.414477903366089</v>
       </c>
       <c r="K30" s="0" t="n">
-        <v>0.898124992847443</v>
+        <v>0.909624993801117</v>
       </c>
     </row>
     <row r="31" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1285,16 +1285,16 @@
         <v>14</v>
       </c>
       <c r="H31" s="0" t="n">
-        <v>0.426373196601868</v>
+        <v>0.402048846721649</v>
       </c>
       <c r="I31" s="0" t="n">
-        <v>0.911499977111816</v>
+        <v>0.9200000166893</v>
       </c>
       <c r="J31" s="0" t="n">
-        <v>0.423405550718308</v>
+        <v>0.40085387134552</v>
       </c>
       <c r="K31" s="0" t="n">
-        <v>0.913500010967254</v>
+        <v>0.920125007629394</v>
       </c>
     </row>
     <row r="32" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1320,16 +1320,16 @@
         <v>13</v>
       </c>
       <c r="H32" s="0" t="n">
-        <v>0.259329428553581</v>
+        <v>0.259511870384216</v>
       </c>
       <c r="I32" s="0" t="n">
-        <v>0.930000007152557</v>
+        <v>0.91949999332428</v>
       </c>
       <c r="J32" s="0" t="n">
-        <v>0.251132897973061</v>
+        <v>0.251886122465134</v>
       </c>
       <c r="K32" s="0" t="n">
-        <v>0.931500017642975</v>
+        <v>0.92900002002716</v>
       </c>
     </row>
     <row r="33" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1355,16 +1355,16 @@
         <v>14</v>
       </c>
       <c r="H33" s="0" t="n">
-        <v>0.237914446353912</v>
+        <v>0.278331106185913</v>
       </c>
       <c r="I33" s="0" t="n">
-        <v>0.921999990940094</v>
+        <v>0.899999976158142</v>
       </c>
       <c r="J33" s="0" t="n">
-        <v>0.222584046542644</v>
+        <v>0.266257930874825</v>
       </c>
       <c r="K33" s="0" t="n">
-        <v>0.93512499332428</v>
+        <v>0.916625022888184</v>
       </c>
     </row>
     <row r="34" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1390,16 +1390,16 @@
         <v>13</v>
       </c>
       <c r="H34" s="0" t="n">
-        <v>0.429030344009399</v>
+        <v>0.446049386978149</v>
       </c>
       <c r="I34" s="0" t="n">
-        <v>0.885999977588654</v>
+        <v>0.883000016212463</v>
       </c>
       <c r="J34" s="0" t="n">
-        <v>0.421855128765106</v>
+        <v>0.44096086192131</v>
       </c>
       <c r="K34" s="0" t="n">
-        <v>0.885625004768372</v>
+        <v>0.876375019550324</v>
       </c>
     </row>
     <row r="35" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1425,16 +1425,16 @@
         <v>14</v>
       </c>
       <c r="H35" s="0" t="n">
-        <v>0.379530920505524</v>
+        <v>0.397307739973068</v>
       </c>
       <c r="I35" s="0" t="n">
-        <v>0.912999987602234</v>
+        <v>0.908999979496002</v>
       </c>
       <c r="J35" s="0" t="n">
-        <v>0.374784524679184</v>
+        <v>0.39323094701767</v>
       </c>
       <c r="K35" s="0" t="n">
-        <v>0.923874974250793</v>
+        <v>0.904124975204468</v>
       </c>
     </row>
     <row r="36" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1460,16 +1460,16 @@
         <v>13</v>
       </c>
       <c r="H36" s="0" t="n">
-        <v>0.252517777562141</v>
+        <v>0.258981971144676</v>
       </c>
       <c r="I36" s="0" t="n">
-        <v>0.933499991893768</v>
+        <v>0.925499975681305</v>
       </c>
       <c r="J36" s="0" t="n">
-        <v>0.242546526551247</v>
+        <v>0.247038663387299</v>
       </c>
       <c r="K36" s="0" t="n">
-        <v>0.94225001335144</v>
+        <v>0.935500025749206</v>
       </c>
     </row>
     <row r="37" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1495,16 +1495,16 @@
         <v>14</v>
       </c>
       <c r="H37" s="0" t="n">
-        <v>0.241087592482567</v>
+        <v>0.242751186847687</v>
       </c>
       <c r="I37" s="0" t="n">
         <v>0.939000010490418</v>
       </c>
       <c r="J37" s="0" t="n">
-        <v>0.233067281246185</v>
+        <v>0.232697527289391</v>
       </c>
       <c r="K37" s="0" t="n">
-        <v>0.941375017166138</v>
+        <v>0.941624999046326</v>
       </c>
     </row>
     <row r="38" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1530,16 +1530,16 @@
         <v>13</v>
       </c>
       <c r="H38" s="0" t="n">
-        <v>0.448332340240478</v>
+        <v>0.449085932970047</v>
       </c>
       <c r="I38" s="0" t="n">
-        <v>0.897499978542328</v>
+        <v>0.902999997138977</v>
       </c>
       <c r="J38" s="0" t="n">
-        <v>0.44423979306221</v>
+        <v>0.446079662561417</v>
       </c>
       <c r="K38" s="0" t="n">
-        <v>0.904749989509582</v>
+        <v>0.903999984264374</v>
       </c>
     </row>
     <row r="39" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1565,16 +1565,16 @@
         <v>14</v>
       </c>
       <c r="H39" s="0" t="n">
-        <v>0.436022071123123</v>
+        <v>0.408123746395111</v>
       </c>
       <c r="I39" s="0" t="n">
-        <v>0.888000011444092</v>
+        <v>0.913500010967254</v>
       </c>
       <c r="J39" s="0" t="n">
-        <v>0.42787894487381</v>
+        <v>0.403768491029739</v>
       </c>
       <c r="K39" s="0" t="n">
-        <v>0.894249975681305</v>
+        <v>0.918874979019165</v>
       </c>
     </row>
     <row r="40" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1600,16 +1600,16 @@
         <v>13</v>
       </c>
       <c r="H40" s="0" t="n">
-        <v>0.290138316869736</v>
+        <v>0.260935081243515</v>
       </c>
       <c r="I40" s="0" t="n">
-        <v>0.90499997138977</v>
+        <v>0.916499972343445</v>
       </c>
       <c r="J40" s="0" t="n">
-        <v>0.273823651909828</v>
+        <v>0.249196086883545</v>
       </c>
       <c r="K40" s="0" t="n">
-        <v>0.913874983787537</v>
+        <v>0.930625021457672</v>
       </c>
     </row>
     <row r="41" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1635,16 +1635,16 @@
         <v>14</v>
       </c>
       <c r="H41" s="0" t="n">
-        <v>0.233201231718063</v>
+        <v>0.222074644207954</v>
       </c>
       <c r="I41" s="0" t="n">
-        <v>0.9375</v>
+        <v>0.938499987125397</v>
       </c>
       <c r="J41" s="0" t="n">
-        <v>0.22594707262516</v>
+        <v>0.213713410973549</v>
       </c>
       <c r="K41" s="0" t="n">
-        <v>0.938624978065491</v>
+        <v>0.94412499666214</v>
       </c>
     </row>
     <row r="42" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1670,16 +1670,16 @@
         <v>13</v>
       </c>
       <c r="H42" s="0" t="n">
-        <v>0.464764664173126</v>
+        <v>0.474364342927933</v>
       </c>
       <c r="I42" s="0" t="n">
-        <v>0.887000024318695</v>
+        <v>0.876999974250793</v>
       </c>
       <c r="J42" s="0" t="n">
-        <v>0.459781173467636</v>
+        <v>0.469004048585892</v>
       </c>
       <c r="K42" s="0" t="n">
-        <v>0.891375005245209</v>
+        <v>0.887374997138977</v>
       </c>
     </row>
     <row r="43" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1705,16 +1705,16 @@
         <v>14</v>
       </c>
       <c r="H43" s="0" t="n">
-        <v>0.413848049163818</v>
+        <v>0.401347420454025</v>
       </c>
       <c r="I43" s="0" t="n">
-        <v>0.885999977588654</v>
+        <v>0.907000005245209</v>
       </c>
       <c r="J43" s="0" t="n">
-        <v>0.408123677253723</v>
+        <v>0.396927888870239</v>
       </c>
       <c r="K43" s="0" t="n">
-        <v>0.888999998569489</v>
+        <v>0.913124978542328</v>
       </c>
     </row>
     <row r="44" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1740,16 +1740,16 @@
         <v>13</v>
       </c>
       <c r="H44" s="0" t="n">
-        <v>0.274159020066261</v>
+        <v>0.265605088233948</v>
       </c>
       <c r="I44" s="0" t="n">
-        <v>0.924499988555908</v>
+        <v>0.925499975681305</v>
       </c>
       <c r="J44" s="0" t="n">
-        <v>0.26606495988369</v>
+        <v>0.256599809527397</v>
       </c>
       <c r="K44" s="0" t="n">
-        <v>0.93087500333786</v>
+        <v>0.934125006198883</v>
       </c>
     </row>
     <row r="45" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1775,16 +1775,16 @@
         <v>14</v>
       </c>
       <c r="H45" s="0" t="n">
-        <v>0.254760787725449</v>
+        <v>0.256767313599586</v>
       </c>
       <c r="I45" s="0" t="n">
-        <v>0.931500017642975</v>
+        <v>0.931999981403351</v>
       </c>
       <c r="J45" s="0" t="n">
-        <v>0.245545438885689</v>
+        <v>0.251460256695747</v>
       </c>
       <c r="K45" s="0" t="n">
-        <v>0.940750002861023</v>
+        <v>0.934374988079071</v>
       </c>
     </row>
     <row r="46" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1810,16 +1810,16 @@
         <v>13</v>
       </c>
       <c r="H46" s="0" t="n">
-        <v>0.501133930206299</v>
+        <v>0.465360211610794</v>
       </c>
       <c r="I46" s="0" t="n">
-        <v>0.893499970436096</v>
+        <v>0.871999979019165</v>
       </c>
       <c r="J46" s="0" t="n">
-        <v>0.499255289554596</v>
+        <v>0.461969854354858</v>
       </c>
       <c r="K46" s="0" t="n">
-        <v>0.883499979972839</v>
+        <v>0.881874978542328</v>
       </c>
     </row>
     <row r="47" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1845,16 +1845,16 @@
         <v>14</v>
       </c>
       <c r="H47" s="0" t="n">
-        <v>0.453841539859772</v>
+        <v>0.44790588092804</v>
       </c>
       <c r="I47" s="0" t="n">
-        <v>0.894500017166138</v>
+        <v>0.878000020980835</v>
       </c>
       <c r="J47" s="0" t="n">
-        <v>0.45274898481369</v>
+        <v>0.441532971143722</v>
       </c>
       <c r="K47" s="0" t="n">
-        <v>0.892000019550324</v>
+        <v>0.885249972343445</v>
       </c>
     </row>
     <row r="48" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1880,16 +1880,16 @@
         <v>13</v>
       </c>
       <c r="H48" s="0" t="n">
-        <v>0.245528151750565</v>
+        <v>0.252718942284584</v>
       </c>
       <c r="I48" s="0" t="n">
-        <v>0.92849999666214</v>
+        <v>0.930999994277954</v>
       </c>
       <c r="J48" s="0" t="n">
-        <v>0.237912366271019</v>
+        <v>0.24446318256855</v>
       </c>
       <c r="K48" s="0" t="n">
-        <v>0.941375017166138</v>
+        <v>0.937749981880188</v>
       </c>
     </row>
     <row r="49" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1915,16 +1915,16 @@
         <v>14</v>
       </c>
       <c r="H49" s="0" t="n">
-        <v>0.236602450609207</v>
+        <v>0.244818650126457</v>
       </c>
       <c r="I49" s="0" t="n">
-        <v>0.931999981403351</v>
+        <v>0.927999973297119</v>
       </c>
       <c r="J49" s="0" t="n">
-        <v>0.224266785740852</v>
+        <v>0.233598946690559</v>
       </c>
       <c r="K49" s="0" t="n">
-        <v>0.937125027179718</v>
+        <v>0.936375021934509</v>
       </c>
     </row>
     <row r="50" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1950,16 +1950,16 @@
         <v>13</v>
       </c>
       <c r="H50" s="0" t="n">
-        <v>0.336775497436523</v>
+        <v>0.355725955963135</v>
       </c>
       <c r="I50" s="0" t="n">
-        <v>0.921000003814697</v>
+        <v>0.908500015735626</v>
       </c>
       <c r="J50" s="0" t="n">
-        <v>0.328218795418739</v>
+        <v>0.34953360247612</v>
       </c>
       <c r="K50" s="0" t="n">
-        <v>0.925625026226044</v>
+        <v>0.914250016212463</v>
       </c>
     </row>
     <row r="51" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1985,16 +1985,16 @@
         <v>14</v>
       </c>
       <c r="H51" s="0" t="n">
-        <v>0.342672942399979</v>
+        <v>0.334345355510712</v>
       </c>
       <c r="I51" s="0" t="n">
-        <v>0.91049998998642</v>
+        <v>0.92900002002716</v>
       </c>
       <c r="J51" s="0" t="n">
-        <v>0.334851129293442</v>
+        <v>0.328215214729309</v>
       </c>
       <c r="K51" s="0" t="n">
-        <v>0.913625001907349</v>
+        <v>0.926999986171722</v>
       </c>
     </row>
     <row r="52" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2020,16 +2020,16 @@
         <v>13</v>
       </c>
       <c r="H52" s="0" t="n">
-        <v>0.214763373017311</v>
+        <v>0.243899932622909</v>
       </c>
       <c r="I52" s="0" t="n">
-        <v>0.944999992847443</v>
+        <v>0.917999982833862</v>
       </c>
       <c r="J52" s="0" t="n">
-        <v>0.20507047688961</v>
+        <v>0.22689188849926</v>
       </c>
       <c r="K52" s="0" t="n">
-        <v>0.94412499666214</v>
+        <v>0.931874990463257</v>
       </c>
     </row>
     <row r="53" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2055,16 +2055,16 @@
         <v>14</v>
       </c>
       <c r="H53" s="0" t="n">
-        <v>0.246019061684608</v>
+        <v>0.228091096401215</v>
       </c>
       <c r="I53" s="0" t="n">
-        <v>0.918500006198883</v>
+        <v>0.924499988555908</v>
       </c>
       <c r="J53" s="0" t="n">
-        <v>0.228075717866421</v>
+        <v>0.210884170770645</v>
       </c>
       <c r="K53" s="0" t="n">
-        <v>0.929750025272369</v>
+        <v>0.936874985694885</v>
       </c>
     </row>
     <row r="54" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2090,16 +2090,16 @@
         <v>13</v>
       </c>
       <c r="H54" s="0" t="n">
-        <v>0.388933901309967</v>
+        <v>0.361771180152893</v>
       </c>
       <c r="I54" s="0" t="n">
-        <v>0.90149998664856</v>
+        <v>0.923500001430512</v>
       </c>
       <c r="J54" s="0" t="n">
-        <v>0.379441093921661</v>
+        <v>0.35578341627121</v>
       </c>
       <c r="K54" s="0" t="n">
-        <v>0.906374990940094</v>
+        <v>0.923874974250793</v>
       </c>
     </row>
     <row r="55" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2125,16 +2125,16 @@
         <v>14</v>
       </c>
       <c r="H55" s="0" t="n">
-        <v>0.347092258930206</v>
+        <v>0.374384137153625</v>
       </c>
       <c r="I55" s="0" t="n">
-        <v>0.920499980449676</v>
+        <v>0.913500010967254</v>
       </c>
       <c r="J55" s="0" t="n">
-        <v>0.337466715812683</v>
+        <v>0.367619416713715</v>
       </c>
       <c r="K55" s="0" t="n">
-        <v>0.921625018119812</v>
+        <v>0.917999982833862</v>
       </c>
     </row>
     <row r="56" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2160,16 +2160,16 @@
         <v>13</v>
       </c>
       <c r="H56" s="0" t="n">
-        <v>0.225940268993378</v>
+        <v>0.232674376368523</v>
       </c>
       <c r="I56" s="0" t="n">
-        <v>0.933499991893768</v>
+        <v>0.922500014305115</v>
       </c>
       <c r="J56" s="0" t="n">
-        <v>0.214491716146469</v>
+        <v>0.216257025241852</v>
       </c>
       <c r="K56" s="0" t="n">
-        <v>0.938000023365021</v>
+        <v>0.935000002384186</v>
       </c>
     </row>
     <row r="57" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2195,16 +2195,16 @@
         <v>14</v>
       </c>
       <c r="H57" s="0" t="n">
-        <v>0.274177728891373</v>
+        <v>0.208340435862541</v>
       </c>
       <c r="I57" s="0" t="n">
-        <v>0.899999976158142</v>
+        <v>0.939000010490418</v>
       </c>
       <c r="J57" s="0" t="n">
-        <v>0.260437898993492</v>
+        <v>0.193047393083572</v>
       </c>
       <c r="K57" s="0" t="n">
-        <v>0.911750018596649</v>
+        <v>0.945999979972839</v>
       </c>
     </row>
     <row r="58" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2230,16 +2230,16 @@
         <v>13</v>
       </c>
       <c r="H58" s="0" t="n">
-        <v>0.363655631780624</v>
+        <v>0.340600708723068</v>
       </c>
       <c r="I58" s="0" t="n">
-        <v>0.903999984264374</v>
+        <v>0.926999986171722</v>
       </c>
       <c r="J58" s="0" t="n">
-        <v>0.353906445026398</v>
+        <v>0.335704618215561</v>
       </c>
       <c r="K58" s="0" t="n">
-        <v>0.909124970436096</v>
+        <v>0.931124985218048</v>
       </c>
     </row>
     <row r="59" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2265,16 +2265,16 @@
         <v>14</v>
       </c>
       <c r="H59" s="0" t="n">
-        <v>0.348478216171265</v>
+        <v>0.361043842315674</v>
       </c>
       <c r="I59" s="0" t="n">
-        <v>0.926500022411346</v>
+        <v>0.915000021457672</v>
       </c>
       <c r="J59" s="0" t="n">
-        <v>0.344511027336121</v>
+        <v>0.35625696849823</v>
       </c>
       <c r="K59" s="0" t="n">
-        <v>0.926500022411346</v>
+        <v>0.916374981403351</v>
       </c>
     </row>
     <row r="60" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2300,16 +2300,16 @@
         <v>13</v>
       </c>
       <c r="H60" s="0" t="n">
-        <v>0.240238428354263</v>
+        <v>0.21971031665802</v>
       </c>
       <c r="I60" s="0" t="n">
-        <v>0.924499988555908</v>
+        <v>0.940500020980835</v>
       </c>
       <c r="J60" s="0" t="n">
-        <v>0.225633910179138</v>
+        <v>0.209637334346771</v>
       </c>
       <c r="K60" s="0" t="n">
-        <v>0.93624997138977</v>
+        <v>0.943499982357025</v>
       </c>
     </row>
     <row r="61" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2335,16 +2335,16 @@
         <v>14</v>
       </c>
       <c r="H61" s="0" t="n">
-        <v>0.222985986113548</v>
+        <v>0.237781466841698</v>
       </c>
       <c r="I61" s="0" t="n">
-        <v>0.929499983787537</v>
+        <v>0.917999982833862</v>
       </c>
       <c r="J61" s="0" t="n">
-        <v>0.210025181293487</v>
+        <v>0.222265202283859</v>
       </c>
       <c r="K61" s="0" t="n">
-        <v>0.93987500667572</v>
+        <v>0.933375000953674</v>
       </c>
     </row>
     <row r="62" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2370,16 +2370,16 @@
         <v>13</v>
       </c>
       <c r="H62" s="0" t="n">
-        <v>0.365384669542313</v>
+        <v>0.378727105379105</v>
       </c>
       <c r="I62" s="0" t="n">
-        <v>0.925999999046326</v>
+        <v>0.9200000166893</v>
       </c>
       <c r="J62" s="0" t="n">
-        <v>0.358383604764938</v>
+        <v>0.373493086099625</v>
       </c>
       <c r="K62" s="0" t="n">
-        <v>0.924624979496002</v>
+        <v>0.916000008583069</v>
       </c>
     </row>
     <row r="63" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2405,16 +2405,16 @@
         <v>14</v>
       </c>
       <c r="H63" s="0" t="n">
-        <v>0.389352835416794</v>
+        <v>0.349353296279907</v>
       </c>
       <c r="I63" s="0" t="n">
-        <v>0.90750002861023</v>
+        <v>0.917999982833862</v>
       </c>
       <c r="J63" s="0" t="n">
-        <v>0.386271032094955</v>
+        <v>0.341397688388824</v>
       </c>
       <c r="K63" s="0" t="n">
-        <v>0.909500002861023</v>
+        <v>0.92312502861023</v>
       </c>
     </row>
     <row r="64" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2440,16 +2440,16 @@
         <v>13</v>
       </c>
       <c r="H64" s="0" t="n">
-        <v>0.212690111041069</v>
+        <v>0.227753908634186</v>
       </c>
       <c r="I64" s="0" t="n">
-        <v>0.935500025749206</v>
+        <v>0.934499979019165</v>
       </c>
       <c r="J64" s="0" t="n">
-        <v>0.198897584617138</v>
+        <v>0.215560275971889</v>
       </c>
       <c r="K64" s="0" t="n">
-        <v>0.942875027656555</v>
+        <v>0.936874985694885</v>
       </c>
     </row>
     <row r="65" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2475,16 +2475,16 @@
         <v>14</v>
       </c>
       <c r="H65" s="0" t="n">
-        <v>0.206687237024307</v>
+        <v>0.207203272223473</v>
       </c>
       <c r="I65" s="0" t="n">
-        <v>0.941999971866608</v>
+        <v>0.939499974250793</v>
       </c>
       <c r="J65" s="0" t="n">
-        <v>0.193878197193146</v>
+        <v>0.19394029289484</v>
       </c>
       <c r="K65" s="0" t="n">
-        <v>0.945375025272369</v>
+        <v>0.944249987602234</v>
       </c>
     </row>
     <row r="66" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2510,16 +2510,16 @@
         <v>13</v>
       </c>
       <c r="H66" s="0" t="n">
-        <v>0.386619608163834</v>
+        <v>0.363783463001251</v>
       </c>
       <c r="I66" s="0" t="n">
-        <v>0.902499973773956</v>
+        <v>0.918500006198883</v>
       </c>
       <c r="J66" s="0" t="n">
-        <v>0.377530044794083</v>
+        <v>0.358613053798675</v>
       </c>
       <c r="K66" s="0" t="n">
-        <v>0.908999979496002</v>
+        <v>0.921249985694885</v>
       </c>
     </row>
     <row r="67" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2545,16 +2545,16 @@
         <v>14</v>
       </c>
       <c r="H67" s="0" t="n">
-        <v>0.385292511463165</v>
+        <v>0.393413484096527</v>
       </c>
       <c r="I67" s="0" t="n">
-        <v>0.910000026226044</v>
+        <v>0.897000014781952</v>
       </c>
       <c r="J67" s="0" t="n">
-        <v>0.381788415193558</v>
+        <v>0.387077897071838</v>
       </c>
       <c r="K67" s="0" t="n">
-        <v>0.903750002384186</v>
+        <v>0.895624995231628</v>
       </c>
     </row>
     <row r="68" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2580,16 +2580,16 @@
         <v>13</v>
       </c>
       <c r="H68" s="0" t="n">
-        <v>0.246832418680191</v>
+        <v>0.233544201612472</v>
       </c>
       <c r="I68" s="0" t="n">
-        <v>0.935999989509582</v>
+        <v>0.927999973297119</v>
       </c>
       <c r="J68" s="0" t="n">
-        <v>0.240338620781898</v>
+        <v>0.217750295042992</v>
       </c>
       <c r="K68" s="0" t="n">
-        <v>0.933624982833862</v>
+        <v>0.939000010490418</v>
       </c>
     </row>
     <row r="69" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2615,16 +2615,16 @@
         <v>14</v>
       </c>
       <c r="H69" s="0" t="n">
-        <v>0.230546976447105</v>
+        <v>0.218320250034332</v>
       </c>
       <c r="I69" s="0" t="n">
-        <v>0.92849999666214</v>
+        <v>0.9375</v>
       </c>
       <c r="J69" s="0" t="n">
-        <v>0.214591057419777</v>
+        <v>0.206348532915115</v>
       </c>
       <c r="K69" s="0" t="n">
-        <v>0.93875002861023</v>
+        <v>0.94462502002716</v>
       </c>
     </row>
     <row r="70" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2650,16 +2650,16 @@
         <v>13</v>
       </c>
       <c r="H70" s="0" t="n">
-        <v>0.384452170610428</v>
+        <v>0.395899947166443</v>
       </c>
       <c r="I70" s="0" t="n">
-        <v>0.918500006198883</v>
+        <v>0.908999979496002</v>
       </c>
       <c r="J70" s="0" t="n">
-        <v>0.379678355693817</v>
+        <v>0.390429167509079</v>
       </c>
       <c r="K70" s="0" t="n">
-        <v>0.918250024318695</v>
+        <v>0.914499998092651</v>
       </c>
     </row>
     <row r="71" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2685,16 +2685,16 @@
         <v>14</v>
       </c>
       <c r="H71" s="0" t="n">
-        <v>0.389839350700378</v>
+        <v>0.39061804151535</v>
       </c>
       <c r="I71" s="0" t="n">
-        <v>0.899999976158142</v>
+        <v>0.913999974727631</v>
       </c>
       <c r="J71" s="0" t="n">
-        <v>0.381599271059036</v>
+        <v>0.389388695955276</v>
       </c>
       <c r="K71" s="0" t="n">
-        <v>0.905250012874603</v>
+        <v>0.910749971866608</v>
       </c>
     </row>
     <row r="72" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2720,16 +2720,16 @@
         <v>13</v>
       </c>
       <c r="H72" s="0" t="n">
-        <v>0.276985189080238</v>
+        <v>0.23174215555191</v>
       </c>
       <c r="I72" s="0" t="n">
-        <v>0.916000008583069</v>
+        <v>0.924499988555908</v>
       </c>
       <c r="J72" s="0" t="n">
-        <v>0.270619555234909</v>
+        <v>0.21881565785408</v>
       </c>
       <c r="K72" s="0" t="n">
-        <v>0.913749992847443</v>
+        <v>0.933875024318695</v>
       </c>
     </row>
     <row r="73" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2755,16 +2755,16 @@
         <v>14</v>
       </c>
       <c r="H73" s="0" t="n">
-        <v>0.227158331155777</v>
+        <v>0.228877001047134</v>
       </c>
       <c r="I73" s="0" t="n">
-        <v>0.925999999046326</v>
+        <v>0.927500009536743</v>
       </c>
       <c r="J73" s="0" t="n">
-        <v>0.211113318622112</v>
+        <v>0.21190716445446</v>
       </c>
       <c r="K73" s="0" t="n">
-        <v>0.939499974250793</v>
+        <v>0.936749994754791</v>
       </c>
     </row>
     <row r="74" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2790,16 +2790,16 @@
         <v>13</v>
       </c>
       <c r="H74" s="0" t="n">
-        <v>0.34596376991272</v>
+        <v>0.368034107685089</v>
       </c>
       <c r="I74" s="0" t="n">
-        <v>0.922999978065491</v>
+        <v>0.916999995708466</v>
       </c>
       <c r="J74" s="0" t="n">
-        <v>0.338554769158363</v>
+        <v>0.367045942783356</v>
       </c>
       <c r="K74" s="0" t="n">
-        <v>0.924125015735626</v>
+        <v>0.917750000953674</v>
       </c>
     </row>
     <row r="75" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2825,16 +2825,16 @@
         <v>14</v>
       </c>
       <c r="H75" s="0" t="n">
-        <v>0.350743649721146</v>
+        <v>0.367389398097992</v>
       </c>
       <c r="I75" s="0" t="n">
-        <v>0.923500001430512</v>
+        <v>0.916499972343445</v>
       </c>
       <c r="J75" s="0" t="n">
-        <v>0.34300865316391</v>
+        <v>0.362339849472046</v>
       </c>
       <c r="K75" s="0" t="n">
-        <v>0.927500009536743</v>
+        <v>0.911875009536743</v>
       </c>
     </row>
     <row r="76" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2860,16 +2860,16 @@
         <v>13</v>
       </c>
       <c r="H76" s="0" t="n">
-        <v>0.212115735530853</v>
+        <v>0.224600125432014</v>
       </c>
       <c r="I76" s="0" t="n">
-        <v>0.939499974250793</v>
+        <v>0.92849999666214</v>
       </c>
       <c r="J76" s="0" t="n">
-        <v>0.200310740470886</v>
+        <v>0.210994853615761</v>
       </c>
       <c r="K76" s="0" t="n">
-        <v>0.946124970912933</v>
+        <v>0.938499987125397</v>
       </c>
     </row>
     <row r="77" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2895,16 +2895,16 @@
         <v>14</v>
       </c>
       <c r="H77" s="0" t="n">
-        <v>0.244729120612144</v>
+        <v>0.220632384419441</v>
       </c>
       <c r="I77" s="0" t="n">
-        <v>0.930499970912933</v>
+        <v>0.927500009536743</v>
       </c>
       <c r="J77" s="0" t="n">
-        <v>0.234187589287758</v>
+        <v>0.204477543592453</v>
       </c>
       <c r="K77" s="0" t="n">
-        <v>0.931375026702881</v>
+        <v>0.942375004291534</v>
       </c>
     </row>
     <row r="78" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2930,16 +2930,16 @@
         <v>13</v>
       </c>
       <c r="H78" s="0" t="n">
-        <v>0.409354310035705</v>
+        <v>0.368773114681244</v>
       </c>
       <c r="I78" s="0" t="n">
-        <v>0.894500017166138</v>
+        <v>0.927999973297119</v>
       </c>
       <c r="J78" s="0" t="n">
-        <v>0.401614878177643</v>
+        <v>0.36405010509491</v>
       </c>
       <c r="K78" s="0" t="n">
-        <v>0.896624982357025</v>
+        <v>0.928624987602234</v>
       </c>
     </row>
     <row r="79" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2965,16 +2965,16 @@
         <v>14</v>
       </c>
       <c r="H79" s="0" t="n">
-        <v>0.368302518606186</v>
+        <v>0.363580289363861</v>
       </c>
       <c r="I79" s="0" t="n">
-        <v>0.922999978065491</v>
+        <v>0.915000021457672</v>
       </c>
       <c r="J79" s="0" t="n">
-        <v>0.36346119761467</v>
+        <v>0.358690318584442</v>
       </c>
       <c r="K79" s="0" t="n">
-        <v>0.924125015735626</v>
+        <v>0.920499980449676</v>
       </c>
     </row>
     <row r="80" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3000,16 +3000,16 @@
         <v>13</v>
       </c>
       <c r="H80" s="0" t="n">
-        <v>0.208249739587307</v>
+        <v>0.221772014379501</v>
       </c>
       <c r="I80" s="0" t="n">
-        <v>0.940999984741211</v>
+        <v>0.929499983787537</v>
       </c>
       <c r="J80" s="0" t="n">
-        <v>0.196187343358993</v>
+        <v>0.207390458166599</v>
       </c>
       <c r="K80" s="0" t="n">
-        <v>0.947000026702881</v>
+        <v>0.9375</v>
       </c>
     </row>
     <row r="81" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3035,16 +3035,16 @@
         <v>14</v>
       </c>
       <c r="H81" s="0" t="n">
-        <v>0.297484969854355</v>
+        <v>0.226278055667877</v>
       </c>
       <c r="I81" s="0" t="n">
-        <v>0.898999989032745</v>
+        <v>0.925000011920929</v>
       </c>
       <c r="J81" s="0" t="n">
-        <v>0.292171235322952</v>
+        <v>0.210394532561302</v>
       </c>
       <c r="K81" s="0" t="n">
-        <v>0.891250014305115</v>
+        <v>0.937624990940094</v>
       </c>
     </row>
     <row r="82" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3070,16 +3070,16 @@
         <v>13</v>
       </c>
       <c r="H82" s="0" t="n">
-        <v>0.384331364631653</v>
+        <v>0.345851277828217</v>
       </c>
       <c r="I82" s="0" t="n">
-        <v>0.907999992370606</v>
+        <v>0.922500014305115</v>
       </c>
       <c r="J82" s="0" t="n">
-        <v>0.379679801464081</v>
+        <v>0.338696073293686</v>
       </c>
       <c r="K82" s="0" t="n">
-        <v>0.902249991893768</v>
+        <v>0.927749991416931</v>
       </c>
     </row>
     <row r="83" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3105,16 +3105,16 @@
         <v>14</v>
       </c>
       <c r="H83" s="0" t="n">
-        <v>0.348596289396286</v>
+        <v>0.348498487710953</v>
       </c>
       <c r="I83" s="0" t="n">
-        <v>0.91949999332428</v>
+        <v>0.916999995708466</v>
       </c>
       <c r="J83" s="0" t="n">
-        <v>0.342076439619064</v>
+        <v>0.342750711202621</v>
       </c>
       <c r="K83" s="0" t="n">
-        <v>0.924624979496002</v>
+        <v>0.921124994754791</v>
       </c>
     </row>
     <row r="84" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3140,16 +3140,16 @@
         <v>13</v>
       </c>
       <c r="H84" s="0" t="n">
-        <v>0.225517400145531</v>
+        <v>0.232401339888573</v>
       </c>
       <c r="I84" s="0" t="n">
-        <v>0.92900002002716</v>
+        <v>0.926999986171722</v>
       </c>
       <c r="J84" s="0" t="n">
-        <v>0.210023047864437</v>
+        <v>0.219098510503769</v>
       </c>
       <c r="K84" s="0" t="n">
-        <v>0.941624999046326</v>
+        <v>0.934249997138977</v>
       </c>
     </row>
     <row r="85" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3175,16 +3175,16 @@
         <v>14</v>
       </c>
       <c r="H85" s="0" t="n">
-        <v>0.226274589538574</v>
+        <v>0.283783910632133</v>
       </c>
       <c r="I85" s="0" t="n">
-        <v>0.933000028133392</v>
+        <v>0.908500015735626</v>
       </c>
       <c r="J85" s="0" t="n">
-        <v>0.213222318291664</v>
+        <v>0.277577587366104</v>
       </c>
       <c r="K85" s="0" t="n">
-        <v>0.938499987125397</v>
+        <v>0.907249987125397</v>
       </c>
     </row>
     <row r="86" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3210,16 +3210,16 @@
         <v>13</v>
       </c>
       <c r="H86" s="0" t="n">
-        <v>0.372782357692718</v>
+        <v>0.390271132469177</v>
       </c>
       <c r="I86" s="0" t="n">
-        <v>0.927999973297119</v>
+        <v>0.923500001430512</v>
       </c>
       <c r="J86" s="0" t="n">
-        <v>0.368970129489899</v>
+        <v>0.384767434120178</v>
       </c>
       <c r="K86" s="0" t="n">
-        <v>0.925999999046326</v>
+        <v>0.922124981880188</v>
       </c>
     </row>
     <row r="87" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3245,16 +3245,16 @@
         <v>14</v>
       </c>
       <c r="H87" s="0" t="n">
-        <v>0.429220776081085</v>
+        <v>0.375239257335663</v>
       </c>
       <c r="I87" s="0" t="n">
-        <v>0.880999982357025</v>
+        <v>0.909500002861023</v>
       </c>
       <c r="J87" s="0" t="n">
-        <v>0.427225039958954</v>
+        <v>0.366780730962753</v>
       </c>
       <c r="K87" s="0" t="n">
-        <v>0.871625006198883</v>
+        <v>0.917999982833862</v>
       </c>
     </row>
     <row r="88" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3280,16 +3280,16 @@
         <v>13</v>
       </c>
       <c r="H88" s="0" t="n">
-        <v>0.229051660776138</v>
+        <v>0.220038847088814</v>
       </c>
       <c r="I88" s="0" t="n">
-        <v>0.936500012874603</v>
+        <v>0.929499983787537</v>
       </c>
       <c r="J88" s="0" t="n">
-        <v>0.219406707286835</v>
+        <v>0.203571044325829</v>
       </c>
       <c r="K88" s="0" t="n">
-        <v>0.936749994754791</v>
+        <v>0.942375004291534</v>
       </c>
     </row>
     <row r="89" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3315,16 +3315,16 @@
         <v>14</v>
       </c>
       <c r="H89" s="0" t="n">
-        <v>0.223638275980949</v>
+        <v>0.255212024569511</v>
       </c>
       <c r="I89" s="0" t="n">
-        <v>0.930000007152557</v>
+        <v>0.925499975681305</v>
       </c>
       <c r="J89" s="0" t="n">
-        <v>0.208387466430664</v>
+        <v>0.242518138170242</v>
       </c>
       <c r="K89" s="0" t="n">
-        <v>0.939125001430512</v>
+        <v>0.927999973297119</v>
       </c>
     </row>
     <row r="90" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3350,16 +3350,16 @@
         <v>13</v>
       </c>
       <c r="H90" s="0" t="n">
-        <v>0.392899896860123</v>
+        <v>0.363066979885101</v>
       </c>
       <c r="I90" s="0" t="n">
-        <v>0.917500019073486</v>
+        <v>0.918500006198883</v>
       </c>
       <c r="J90" s="0" t="n">
-        <v>0.386794280529022</v>
+        <v>0.3573035800457</v>
       </c>
       <c r="K90" s="0" t="n">
-        <v>0.914624989032745</v>
+        <v>0.919375002384186</v>
       </c>
     </row>
     <row r="91" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3385,16 +3385,16 @@
         <v>14</v>
       </c>
       <c r="H91" s="0" t="n">
-        <v>0.394986932754517</v>
+        <v>0.394352066040039</v>
       </c>
       <c r="I91" s="0" t="n">
-        <v>0.899500012397766</v>
+        <v>0.896499991416931</v>
       </c>
       <c r="J91" s="0" t="n">
-        <v>0.388721113443375</v>
+        <v>0.387596483945847</v>
       </c>
       <c r="K91" s="0" t="n">
-        <v>0.89962500333786</v>
+        <v>0.899999976158142</v>
       </c>
     </row>
     <row r="92" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3420,16 +3420,16 @@
         <v>13</v>
       </c>
       <c r="H92" s="0" t="n">
-        <v>0.244917875528336</v>
+        <v>0.234179640412331</v>
       </c>
       <c r="I92" s="0" t="n">
-        <v>0.91949999332428</v>
+        <v>0.925499975681305</v>
       </c>
       <c r="J92" s="0" t="n">
-        <v>0.228341111898422</v>
+        <v>0.217943021178245</v>
       </c>
       <c r="K92" s="0" t="n">
-        <v>0.933375000953674</v>
+        <v>0.93875002861023</v>
       </c>
     </row>
     <row r="93" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3455,16 +3455,16 @@
         <v>14</v>
       </c>
       <c r="H93" s="0" t="n">
-        <v>0.241327707052231</v>
+        <v>0.233038552641869</v>
       </c>
       <c r="I93" s="0" t="n">
-        <v>0.935999989509582</v>
+        <v>0.932500004768372</v>
       </c>
       <c r="J93" s="0" t="n">
-        <v>0.228198619127274</v>
+        <v>0.221234311819076</v>
       </c>
       <c r="K93" s="0" t="n">
-        <v>0.938875019550324</v>
+        <v>0.938125014305115</v>
       </c>
     </row>
     <row r="94" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3490,16 +3490,16 @@
         <v>13</v>
       </c>
       <c r="H94" s="0" t="n">
-        <v>0.409495936632156</v>
+        <v>0.393970604658127</v>
       </c>
       <c r="I94" s="0" t="n">
-        <v>0.910000026226044</v>
+        <v>0.920499980449676</v>
       </c>
       <c r="J94" s="0" t="n">
-        <v>0.40624634885788</v>
+        <v>0.390359779596329</v>
       </c>
       <c r="K94" s="0" t="n">
-        <v>0.913500010967254</v>
+        <v>0.919749975204468</v>
       </c>
     </row>
     <row r="95" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3525,16 +3525,16 @@
         <v>14</v>
       </c>
       <c r="H95" s="0" t="n">
-        <v>0.400862874984741</v>
+        <v>0.393467748641968</v>
       </c>
       <c r="I95" s="0" t="n">
-        <v>0.907999992370606</v>
+        <v>0.911499977111816</v>
       </c>
       <c r="J95" s="0" t="n">
-        <v>0.392627401590347</v>
+        <v>0.387856715679169</v>
       </c>
       <c r="K95" s="0" t="n">
-        <v>0.909749984741211</v>
+        <v>0.911625027656555</v>
       </c>
     </row>
     <row r="96" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3560,16 +3560,16 @@
         <v>13</v>
       </c>
       <c r="H96" s="0" t="n">
-        <v>0.23440477848053</v>
+        <v>0.229182388424873</v>
       </c>
       <c r="I96" s="0" t="n">
-        <v>0.927999973297119</v>
+        <v>0.923500001430512</v>
       </c>
       <c r="J96" s="0" t="n">
-        <v>0.22001580542326</v>
+        <v>0.215134762525558</v>
       </c>
       <c r="K96" s="0" t="n">
-        <v>0.936124980449676</v>
+        <v>0.937250018119812</v>
       </c>
     </row>
     <row r="97" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3595,22 +3595,22 @@
         <v>14</v>
       </c>
       <c r="H97" s="0" t="n">
-        <v>0.242010654687881</v>
+        <v>0.233121909022331</v>
       </c>
       <c r="I97" s="0" t="n">
-        <v>0.934000015258789</v>
+        <v>0.92849999666214</v>
       </c>
       <c r="J97" s="0" t="n">
-        <v>0.230675279855728</v>
+        <v>0.2173511698246</v>
       </c>
       <c r="K97" s="0" t="n">
-        <v>0.933624982833862</v>
+        <v>0.935999989509582</v>
       </c>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
-  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader/>
     <oddFooter/>
@@ -3626,7 +3626,7 @@
   <dimension ref="A1:K97"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B5" activeCellId="0" sqref="B5"/>
+      <selection pane="topLeft" activeCell="B1" activeCellId="0" sqref="B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -3700,16 +3700,16 @@
         <v>13</v>
       </c>
       <c r="H2" s="0" t="n">
-        <v>0.419509116013845</v>
+        <v>0.373862146536509</v>
       </c>
       <c r="I2" s="0" t="n">
-        <v>0.893666684627533</v>
+        <v>0.91566663980484</v>
       </c>
       <c r="J2" s="0" t="n">
-        <v>0.417445887906211</v>
+        <v>0.37348723084586</v>
       </c>
       <c r="K2" s="0" t="n">
-        <v>0.90071427822113</v>
+        <v>0.921999990940094</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3735,16 +3735,16 @@
         <v>14</v>
       </c>
       <c r="H3" s="0" t="n">
-        <v>0.377743582646052</v>
+        <v>0.397383462667465</v>
       </c>
       <c r="I3" s="0" t="n">
-        <v>0.910000026226044</v>
+        <v>0.901333332061768</v>
       </c>
       <c r="J3" s="0" t="n">
-        <v>0.376703182220459</v>
+        <v>0.397933715343475</v>
       </c>
       <c r="K3" s="0" t="n">
-        <v>0.914142847061157</v>
+        <v>0.901428580284119</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3770,16 +3770,16 @@
         <v>13</v>
       </c>
       <c r="H4" s="0" t="n">
-        <v>0.26735612531503</v>
+        <v>0.291258796771367</v>
       </c>
       <c r="I4" s="0" t="n">
-        <v>0.918333351612091</v>
+        <v>0.911333322525024</v>
       </c>
       <c r="J4" s="0" t="n">
-        <v>0.258660205568586</v>
+        <v>0.28950568662371</v>
       </c>
       <c r="K4" s="0" t="n">
-        <v>0.925428569316864</v>
+        <v>0.917428553104401</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3805,16 +3805,16 @@
         <v>14</v>
       </c>
       <c r="H5" s="0" t="n">
-        <v>0.240790224313736</v>
+        <v>0.234332499305407</v>
       </c>
       <c r="I5" s="0" t="n">
-        <v>0.938666641712189</v>
+        <v>0.935999989509582</v>
       </c>
       <c r="J5" s="0" t="n">
-        <v>0.235228267158781</v>
+        <v>0.232206236089979</v>
       </c>
       <c r="K5" s="0" t="n">
-        <v>0.940999984741211</v>
+        <v>0.938285708427429</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3840,16 +3840,16 @@
         <v>13</v>
       </c>
       <c r="H6" s="0" t="n">
-        <v>0.52427368760109</v>
+        <v>0.421495765050252</v>
       </c>
       <c r="I6" s="0" t="n">
-        <v>0.825666666030884</v>
+        <v>0.901000022888184</v>
       </c>
       <c r="J6" s="0" t="n">
-        <v>0.519103254522596</v>
+        <v>0.419838954755238</v>
       </c>
       <c r="K6" s="0" t="n">
-        <v>0.821714282035828</v>
+        <v>0.906571447849274</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3875,16 +3875,16 @@
         <v>14</v>
       </c>
       <c r="H7" s="0" t="n">
-        <v>0.385673954804738</v>
+        <v>0.422916028102239</v>
       </c>
       <c r="I7" s="0" t="n">
-        <v>0.91733330488205</v>
+        <v>0.892333328723908</v>
       </c>
       <c r="J7" s="0" t="n">
-        <v>0.382068076201848</v>
+        <v>0.418723060403551</v>
       </c>
       <c r="K7" s="0" t="n">
-        <v>0.917285740375519</v>
+        <v>0.895857155323029</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3910,16 +3910,16 @@
         <v>13</v>
       </c>
       <c r="H8" s="0" t="n">
-        <v>0.239235677798589</v>
+        <v>0.256648262739181</v>
       </c>
       <c r="I8" s="0" t="n">
-        <v>0.930333316326141</v>
+        <v>0.929333329200745</v>
       </c>
       <c r="J8" s="0" t="n">
-        <v>0.232803910817419</v>
+        <v>0.24536118216174</v>
       </c>
       <c r="K8" s="0" t="n">
-        <v>0.938142836093903</v>
+        <v>0.936714291572571</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3945,16 +3945,16 @@
         <v>14</v>
       </c>
       <c r="H9" s="0" t="n">
-        <v>0.235929494222005</v>
+        <v>0.252690106868744</v>
       </c>
       <c r="I9" s="0" t="n">
-        <v>0.936999976634979</v>
+        <v>0.93366664648056</v>
       </c>
       <c r="J9" s="0" t="n">
-        <v>0.232136924266815</v>
+        <v>0.246809536593301</v>
       </c>
       <c r="K9" s="0" t="n">
-        <v>0.939142882823944</v>
+        <v>0.934285700321198</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3980,16 +3980,16 @@
         <v>13</v>
       </c>
       <c r="H10" s="0" t="n">
-        <v>0.466547923723857</v>
+        <v>0.405833713372548</v>
       </c>
       <c r="I10" s="0" t="n">
-        <v>0.897000014781952</v>
+        <v>0.907000005245209</v>
       </c>
       <c r="J10" s="0" t="n">
-        <v>0.461888709477016</v>
+        <v>0.406529332876205</v>
       </c>
       <c r="K10" s="0" t="n">
-        <v>0.898714303970337</v>
+        <v>0.908714294433594</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4015,16 +4015,16 @@
         <v>14</v>
       </c>
       <c r="H11" s="0" t="n">
-        <v>0.398643900553385</v>
+        <v>0.383301901737849</v>
       </c>
       <c r="I11" s="0" t="n">
-        <v>0.907000005245209</v>
+        <v>0.91100001335144</v>
       </c>
       <c r="J11" s="0" t="n">
-        <v>0.397535834414618</v>
+        <v>0.379891726834433</v>
       </c>
       <c r="K11" s="0" t="n">
-        <v>0.910857141017914</v>
+        <v>0.917142868041992</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4050,16 +4050,16 @@
         <v>13</v>
       </c>
       <c r="H12" s="0" t="n">
-        <v>0.304814582268397</v>
+        <v>0.273079327106476</v>
       </c>
       <c r="I12" s="0" t="n">
-        <v>0.912999987602234</v>
+        <v>0.926999986171722</v>
       </c>
       <c r="J12" s="0" t="n">
-        <v>0.302591290405818</v>
+        <v>0.265934644562857</v>
       </c>
       <c r="K12" s="0" t="n">
-        <v>0.913571417331696</v>
+        <v>0.930142879486084</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4085,16 +4085,16 @@
         <v>14</v>
       </c>
       <c r="H13" s="0" t="n">
-        <v>0.243005824724833</v>
+        <v>0.237676830331484</v>
       </c>
       <c r="I13" s="0" t="n">
-        <v>0.930333316326141</v>
+        <v>0.931666672229767</v>
       </c>
       <c r="J13" s="0" t="n">
-        <v>0.236193788392203</v>
+        <v>0.232075892891203</v>
       </c>
       <c r="K13" s="0" t="n">
-        <v>0.936999976634979</v>
+        <v>0.938428580760956</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4120,16 +4120,16 @@
         <v>13</v>
       </c>
       <c r="H14" s="0" t="n">
-        <v>0.445350526730219</v>
+        <v>0.443419052441915</v>
       </c>
       <c r="I14" s="0" t="n">
-        <v>0.910333335399628</v>
+        <v>0.870666682720184</v>
       </c>
       <c r="J14" s="0" t="n">
-        <v>0.447261480910437</v>
+        <v>0.439772524969918</v>
       </c>
       <c r="K14" s="0" t="n">
-        <v>0.908999979496002</v>
+        <v>0.880714297294617</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4155,16 +4155,16 @@
         <v>14</v>
       </c>
       <c r="H15" s="0" t="n">
-        <v>0.431772642532984</v>
+        <v>0.392493288755417</v>
       </c>
       <c r="I15" s="0" t="n">
-        <v>0.886666655540466</v>
+        <v>0.912999987602234</v>
       </c>
       <c r="J15" s="0" t="n">
-        <v>0.428708635534559</v>
+        <v>0.389971442222595</v>
       </c>
       <c r="K15" s="0" t="n">
-        <v>0.891285717487335</v>
+        <v>0.915142834186554</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4190,16 +4190,16 @@
         <v>13</v>
       </c>
       <c r="H16" s="0" t="n">
-        <v>0.273836309313774</v>
+        <v>0.246878250360489</v>
       </c>
       <c r="I16" s="0" t="n">
-        <v>0.927333354949951</v>
+        <v>0.924000024795532</v>
       </c>
       <c r="J16" s="0" t="n">
-        <v>0.271192289658955</v>
+        <v>0.239242193017687</v>
       </c>
       <c r="K16" s="0" t="n">
-        <v>0.925571441650391</v>
+        <v>0.931714296340942</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4225,16 +4225,16 @@
         <v>14</v>
       </c>
       <c r="H17" s="0" t="n">
-        <v>0.271780859311422</v>
+        <v>0.223410572727521</v>
       </c>
       <c r="I17" s="0" t="n">
-        <v>0.907333314418793</v>
+        <v>0.936666667461395</v>
       </c>
       <c r="J17" s="0" t="n">
-        <v>0.263982862608773</v>
+        <v>0.219381939717701</v>
       </c>
       <c r="K17" s="0" t="n">
-        <v>0.917142868041992</v>
+        <v>0.939714312553406</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4260,16 +4260,16 @@
         <v>13</v>
       </c>
       <c r="H18" s="0" t="n">
-        <v>0.440312987883886</v>
+        <v>0.481582298914591</v>
       </c>
       <c r="I18" s="0" t="n">
-        <v>0.902666687965393</v>
+        <v>0.885333359241486</v>
       </c>
       <c r="J18" s="0" t="n">
-        <v>0.440122277498245</v>
+        <v>0.478039843763624</v>
       </c>
       <c r="K18" s="0" t="n">
-        <v>0.9041428565979</v>
+        <v>0.892857134342194</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4295,16 +4295,16 @@
         <v>14</v>
       </c>
       <c r="H19" s="0" t="n">
-        <v>0.403487958431244</v>
+        <v>0.439328888575236</v>
       </c>
       <c r="I19" s="0" t="n">
-        <v>0.898666679859161</v>
+        <v>0.865000009536743</v>
       </c>
       <c r="J19" s="0" t="n">
-        <v>0.401243380648749</v>
+        <v>0.438784921782357</v>
       </c>
       <c r="K19" s="0" t="n">
-        <v>0.90542858839035</v>
+        <v>0.870428562164306</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4330,16 +4330,16 @@
         <v>13</v>
       </c>
       <c r="H20" s="0" t="n">
-        <v>0.280240747292836</v>
+        <v>0.274093134244283</v>
       </c>
       <c r="I20" s="0" t="n">
-        <v>0.928666651248932</v>
+        <v>0.921333312988281</v>
       </c>
       <c r="J20" s="0" t="n">
-        <v>0.274783668245588</v>
+        <v>0.267437698125839</v>
       </c>
       <c r="K20" s="0" t="n">
-        <v>0.934571444988251</v>
+        <v>0.926714301109314</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4365,16 +4365,16 @@
         <v>14</v>
       </c>
       <c r="H21" s="0" t="n">
-        <v>0.252787743965785</v>
+        <v>0.244512576262156</v>
       </c>
       <c r="I21" s="0" t="n">
-        <v>0.935000002384186</v>
+        <v>0.932666659355164</v>
       </c>
       <c r="J21" s="0" t="n">
-        <v>0.250433806180954</v>
+        <v>0.238493856532233</v>
       </c>
       <c r="K21" s="0" t="n">
-        <v>0.934571444988251</v>
+        <v>0.937142848968506</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4400,16 +4400,16 @@
         <v>13</v>
       </c>
       <c r="H22" s="0" t="n">
-        <v>0.477816732088725</v>
+        <v>0.484988099892934</v>
       </c>
       <c r="I22" s="0" t="n">
-        <v>0.878000020980835</v>
+        <v>0.873000025749206</v>
       </c>
       <c r="J22" s="0" t="n">
-        <v>0.475417941093445</v>
+        <v>0.487509094919477</v>
       </c>
       <c r="K22" s="0" t="n">
-        <v>0.878285706043243</v>
+        <v>0.857999980449677</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4435,16 +4435,16 @@
         <v>14</v>
       </c>
       <c r="H23" s="0" t="n">
-        <v>0.432068550268809</v>
+        <v>0.44977435541153</v>
       </c>
       <c r="I23" s="0" t="n">
-        <v>0.890333354473114</v>
+        <v>0.873000025749206</v>
       </c>
       <c r="J23" s="0" t="n">
-        <v>0.430088074037007</v>
+        <v>0.448063817977905</v>
       </c>
       <c r="K23" s="0" t="n">
-        <v>0.894428551197052</v>
+        <v>0.874857127666473</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4470,16 +4470,16 @@
         <v>13</v>
       </c>
       <c r="H24" s="0" t="n">
-        <v>0.278860770940781</v>
+        <v>0.257663447737694</v>
       </c>
       <c r="I24" s="0" t="n">
-        <v>0.908999979496002</v>
+        <v>0.92166668176651</v>
       </c>
       <c r="J24" s="0" t="n">
-        <v>0.271620813710349</v>
+        <v>0.251072145734514</v>
       </c>
       <c r="K24" s="0" t="n">
-        <v>0.918285727500916</v>
+        <v>0.929428577423096</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4505,16 +4505,16 @@
         <v>14</v>
       </c>
       <c r="H25" s="0" t="n">
-        <v>0.253870688041051</v>
+        <v>0.311056357661883</v>
       </c>
       <c r="I25" s="0" t="n">
-        <v>0.931333363056183</v>
+        <v>0.902333319187164</v>
       </c>
       <c r="J25" s="0" t="n">
-        <v>0.249181524515152</v>
+        <v>0.307355443188122</v>
       </c>
       <c r="K25" s="0" t="n">
-        <v>0.932428598403931</v>
+        <v>0.905142843723297</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4540,16 +4540,16 @@
         <v>13</v>
       </c>
       <c r="H26" s="0" t="n">
-        <v>0.436359322865804</v>
+        <v>0.425844605286916</v>
       </c>
       <c r="I26" s="0" t="n">
-        <v>0.902333319187164</v>
+        <v>0.898666679859161</v>
       </c>
       <c r="J26" s="0" t="n">
-        <v>0.437405404908316</v>
+        <v>0.424245432921818</v>
       </c>
       <c r="K26" s="0" t="n">
-        <v>0.903714299201965</v>
+        <v>0.896000027656555</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4575,16 +4575,16 @@
         <v>14</v>
       </c>
       <c r="H27" s="0" t="n">
-        <v>0.375357233762741</v>
+        <v>0.423179587205251</v>
       </c>
       <c r="I27" s="0" t="n">
-        <v>0.913999974727631</v>
+        <v>0.882666647434235</v>
       </c>
       <c r="J27" s="0" t="n">
-        <v>0.373591079575675</v>
+        <v>0.424105187075479</v>
       </c>
       <c r="K27" s="0" t="n">
-        <v>0.921999990940094</v>
+        <v>0.8908571600914</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4610,16 +4610,16 @@
         <v>13</v>
       </c>
       <c r="H28" s="0" t="n">
-        <v>0.258855435768763</v>
+        <v>0.268999351660411</v>
       </c>
       <c r="I28" s="0" t="n">
-        <v>0.93233335018158</v>
+        <v>0.926999986171722</v>
       </c>
       <c r="J28" s="0" t="n">
-        <v>0.254484877279826</v>
+        <v>0.263628364937646</v>
       </c>
       <c r="K28" s="0" t="n">
-        <v>0.932714283466339</v>
+        <v>0.930571436882019</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4645,16 +4645,16 @@
         <v>14</v>
       </c>
       <c r="H29" s="0" t="n">
-        <v>0.230806624690692</v>
+        <v>0.238419625242551</v>
       </c>
       <c r="I29" s="0" t="n">
-        <v>0.937333345413208</v>
+        <v>0.93066668510437</v>
       </c>
       <c r="J29" s="0" t="n">
-        <v>0.224473798496383</v>
+        <v>0.229312735932214</v>
       </c>
       <c r="K29" s="0" t="n">
-        <v>0.940857172012329</v>
+        <v>0.940714299678802</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4680,16 +4680,16 @@
         <v>13</v>
       </c>
       <c r="H30" s="0" t="n">
-        <v>0.476564287106196</v>
+        <v>0.450660798390706</v>
       </c>
       <c r="I30" s="0" t="n">
-        <v>0.882333338260651</v>
+        <v>0.888000011444092</v>
       </c>
       <c r="J30" s="0" t="n">
-        <v>0.475041371447699</v>
+        <v>0.448702461242676</v>
       </c>
       <c r="K30" s="0" t="n">
-        <v>0.873571455478668</v>
+        <v>0.895285725593567</v>
       </c>
     </row>
     <row r="31" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4715,16 +4715,16 @@
         <v>14</v>
       </c>
       <c r="H31" s="0" t="n">
-        <v>0.441021499156952</v>
+        <v>0.451903569698334</v>
       </c>
       <c r="I31" s="0" t="n">
-        <v>0.89466667175293</v>
+        <v>0.879666686058044</v>
       </c>
       <c r="J31" s="0" t="n">
-        <v>0.444263641391482</v>
+        <v>0.450748307909284</v>
       </c>
       <c r="K31" s="0" t="n">
-        <v>0.892285704612732</v>
+        <v>0.885428547859192</v>
       </c>
     </row>
     <row r="32" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4750,16 +4750,16 @@
         <v>13</v>
       </c>
       <c r="H32" s="0" t="n">
-        <v>0.261482362985611</v>
+        <v>0.274624132235845</v>
       </c>
       <c r="I32" s="0" t="n">
-        <v>0.916333317756653</v>
+        <v>0.925999999046326</v>
       </c>
       <c r="J32" s="0" t="n">
-        <v>0.250843510729926</v>
+        <v>0.272838830743517</v>
       </c>
       <c r="K32" s="0" t="n">
-        <v>0.925857126712799</v>
+        <v>0.927999973297119</v>
       </c>
     </row>
     <row r="33" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4785,16 +4785,16 @@
         <v>14</v>
       </c>
       <c r="H33" s="0" t="n">
-        <v>0.227641474843025</v>
+        <v>0.255328266859055</v>
       </c>
       <c r="I33" s="0" t="n">
-        <v>0.93066668510437</v>
+        <v>0.916999995708466</v>
       </c>
       <c r="J33" s="0" t="n">
-        <v>0.219353054727827</v>
+        <v>0.24801967389243</v>
       </c>
       <c r="K33" s="0" t="n">
-        <v>0.940285742282867</v>
+        <v>0.926571428775787</v>
       </c>
     </row>
     <row r="34" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4820,16 +4820,16 @@
         <v>13</v>
       </c>
       <c r="H34" s="0" t="n">
-        <v>0.398055916150411</v>
+        <v>0.419551405747731</v>
       </c>
       <c r="I34" s="0" t="n">
-        <v>0.918333351612091</v>
+        <v>0.893666684627533</v>
       </c>
       <c r="J34" s="0" t="n">
-        <v>0.396860508067267</v>
+        <v>0.418280229296003</v>
       </c>
       <c r="K34" s="0" t="n">
-        <v>0.915285706520081</v>
+        <v>0.89985716342926</v>
       </c>
     </row>
     <row r="35" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4855,16 +4855,16 @@
         <v>14</v>
       </c>
       <c r="H35" s="0" t="n">
-        <v>0.430571905295054</v>
+        <v>0.397028287887573</v>
       </c>
       <c r="I35" s="0" t="n">
-        <v>0.866333305835724</v>
+        <v>0.89466667175293</v>
       </c>
       <c r="J35" s="0" t="n">
-        <v>0.432262876714979</v>
+        <v>0.39258316717829</v>
       </c>
       <c r="K35" s="0" t="n">
-        <v>0.86385715007782</v>
+        <v>0.901428580284119</v>
       </c>
     </row>
     <row r="36" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4890,16 +4890,16 @@
         <v>13</v>
       </c>
       <c r="H36" s="0" t="n">
-        <v>0.251889506101608</v>
+        <v>0.271661173303922</v>
       </c>
       <c r="I36" s="0" t="n">
-        <v>0.928333342075348</v>
+        <v>0.92166668176651</v>
       </c>
       <c r="J36" s="0" t="n">
-        <v>0.243491141625813</v>
+        <v>0.260119363955089</v>
       </c>
       <c r="K36" s="0" t="n">
-        <v>0.935714304447174</v>
+        <v>0.932571411132812</v>
       </c>
     </row>
     <row r="37" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4925,16 +4925,16 @@
         <v>14</v>
       </c>
       <c r="H37" s="0" t="n">
-        <v>0.235899921695391</v>
+        <v>0.235121660629908</v>
       </c>
       <c r="I37" s="0" t="n">
-        <v>0.937666654586792</v>
+        <v>0.933000028133392</v>
       </c>
       <c r="J37" s="0" t="n">
-        <v>0.231604404449463</v>
+        <v>0.229844331162316</v>
       </c>
       <c r="K37" s="0" t="n">
-        <v>0.942857146263123</v>
+        <v>0.938571453094482</v>
       </c>
     </row>
     <row r="38" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4960,16 +4960,16 @@
         <v>13</v>
       </c>
       <c r="H38" s="0" t="n">
-        <v>0.45548535490036</v>
+        <v>0.450664167801539</v>
       </c>
       <c r="I38" s="0" t="n">
-        <v>0.885333359241486</v>
+        <v>0.898666679859161</v>
       </c>
       <c r="J38" s="0" t="n">
-        <v>0.453859441416604</v>
+        <v>0.448993230342865</v>
       </c>
       <c r="K38" s="0" t="n">
-        <v>0.893999993801117</v>
+        <v>0.904571413993835</v>
       </c>
     </row>
     <row r="39" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4995,16 +4995,16 @@
         <v>14</v>
       </c>
       <c r="H39" s="0" t="n">
-        <v>0.465187183936437</v>
+        <v>0.446213368097941</v>
       </c>
       <c r="I39" s="0" t="n">
-        <v>0.875999987125397</v>
+        <v>0.893333315849304</v>
       </c>
       <c r="J39" s="0" t="n">
-        <v>0.46389948783602</v>
+        <v>0.446535016809191</v>
       </c>
       <c r="K39" s="0" t="n">
-        <v>0.880142867565155</v>
+        <v>0.892285704612732</v>
       </c>
     </row>
     <row r="40" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5030,16 +5030,16 @@
         <v>13</v>
       </c>
       <c r="H40" s="0" t="n">
-        <v>0.256605670571327</v>
+        <v>0.239905456980069</v>
       </c>
       <c r="I40" s="0" t="n">
-        <v>0.922333359718323</v>
+        <v>0.93366664648056</v>
       </c>
       <c r="J40" s="0" t="n">
-        <v>0.249733815738133</v>
+        <v>0.234458229541779</v>
       </c>
       <c r="K40" s="0" t="n">
-        <v>0.930857121944428</v>
+        <v>0.940857172012329</v>
       </c>
     </row>
     <row r="41" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5065,16 +5065,16 @@
         <v>14</v>
       </c>
       <c r="H41" s="0" t="n">
-        <v>0.249309528271357</v>
+        <v>0.246573775688807</v>
       </c>
       <c r="I41" s="0" t="n">
-        <v>0.93366664648056</v>
+        <v>0.921999990940094</v>
       </c>
       <c r="J41" s="0" t="n">
-        <v>0.249743599159377</v>
+        <v>0.239514398711068</v>
       </c>
       <c r="K41" s="0" t="n">
-        <v>0.933285713195801</v>
+        <v>0.930857121944428</v>
       </c>
     </row>
     <row r="42" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5100,16 +5100,16 @@
         <v>13</v>
       </c>
       <c r="H42" s="0" t="n">
-        <v>0.458537316083908</v>
+        <v>0.480211696942647</v>
       </c>
       <c r="I42" s="0" t="n">
-        <v>0.887666642665863</v>
+        <v>0.875999987125397</v>
       </c>
       <c r="J42" s="0" t="n">
-        <v>0.457203047548022</v>
+        <v>0.47583567408153</v>
       </c>
       <c r="K42" s="0" t="n">
-        <v>0.892571449279785</v>
+        <v>0.881714284420013</v>
       </c>
     </row>
     <row r="43" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5135,16 +5135,16 @@
         <v>14</v>
       </c>
       <c r="H43" s="0" t="n">
-        <v>0.421416198333105</v>
+        <v>0.43137530708313</v>
       </c>
       <c r="I43" s="0" t="n">
-        <v>0.896000027656555</v>
+        <v>0.88566666841507</v>
       </c>
       <c r="J43" s="0" t="n">
-        <v>0.418699314730508</v>
+        <v>0.426752551828112</v>
       </c>
       <c r="K43" s="0" t="n">
-        <v>0.896857142448425</v>
+        <v>0.888999998569489</v>
       </c>
     </row>
     <row r="44" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5170,16 +5170,16 @@
         <v>13</v>
       </c>
       <c r="H44" s="0" t="n">
-        <v>0.258630156000455</v>
+        <v>0.297163446903229</v>
       </c>
       <c r="I44" s="0" t="n">
-        <v>0.929666638374329</v>
+        <v>0.920666694641113</v>
       </c>
       <c r="J44" s="0" t="n">
-        <v>0.256737179279327</v>
+        <v>0.292803651537214</v>
       </c>
       <c r="K44" s="0" t="n">
-        <v>0.932857155799866</v>
+        <v>0.922285735607147</v>
       </c>
     </row>
     <row r="45" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5205,16 +5205,16 @@
         <v>14</v>
       </c>
       <c r="H45" s="0" t="n">
-        <v>0.248407371163368</v>
+        <v>0.246326007127762</v>
       </c>
       <c r="I45" s="0" t="n">
-        <v>0.930333316326141</v>
+        <v>0.937333345413208</v>
       </c>
       <c r="J45" s="0" t="n">
-        <v>0.244275085687637</v>
+        <v>0.239996614864894</v>
       </c>
       <c r="K45" s="0" t="n">
-        <v>0.936571419239044</v>
+        <v>0.942857146263123</v>
       </c>
     </row>
     <row r="46" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5240,16 +5240,16 @@
         <v>13</v>
       </c>
       <c r="H46" s="0" t="n">
-        <v>0.477200090567271</v>
+        <v>0.504123262405396</v>
       </c>
       <c r="I46" s="0" t="n">
-        <v>0.880999982357025</v>
+        <v>0.85533332824707</v>
       </c>
       <c r="J46" s="0" t="n">
-        <v>0.473433103152684</v>
+        <v>0.504075602735792</v>
       </c>
       <c r="K46" s="0" t="n">
-        <v>0.888428568840027</v>
+        <v>0.859428584575653</v>
       </c>
     </row>
     <row r="47" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5275,16 +5275,16 @@
         <v>14</v>
       </c>
       <c r="H47" s="0" t="n">
-        <v>0.455729881445567</v>
+        <v>0.453089106718699</v>
       </c>
       <c r="I47" s="0" t="n">
-        <v>0.890333354473114</v>
+        <v>0.887000024318695</v>
       </c>
       <c r="J47" s="0" t="n">
-        <v>0.454226927212306</v>
+        <v>0.453658705166408</v>
       </c>
       <c r="K47" s="0" t="n">
-        <v>0.896000027656555</v>
+        <v>0.884714305400848</v>
       </c>
     </row>
     <row r="48" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5310,16 +5310,16 @@
         <v>13</v>
       </c>
       <c r="H48" s="0" t="n">
-        <v>0.260411762317022</v>
+        <v>0.268854571342468</v>
       </c>
       <c r="I48" s="0" t="n">
-        <v>0.921999990940094</v>
+        <v>0.913666665554047</v>
       </c>
       <c r="J48" s="0" t="n">
-        <v>0.247747324773243</v>
+        <v>0.260838167565209</v>
       </c>
       <c r="K48" s="0" t="n">
-        <v>0.928857147693634</v>
+        <v>0.923428595066071</v>
       </c>
     </row>
     <row r="49" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5345,16 +5345,16 @@
         <v>14</v>
       </c>
       <c r="H49" s="0" t="n">
-        <v>0.235155660947164</v>
+        <v>0.251710963606834</v>
       </c>
       <c r="I49" s="0" t="n">
-        <v>0.93366664648056</v>
+        <v>0.928333342075348</v>
       </c>
       <c r="J49" s="0" t="n">
-        <v>0.229926390171051</v>
+        <v>0.248219613654273</v>
       </c>
       <c r="K49" s="0" t="n">
-        <v>0.934714257717133</v>
+        <v>0.934571444988251</v>
       </c>
     </row>
     <row r="50" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5380,16 +5380,16 @@
         <v>13</v>
       </c>
       <c r="H50" s="0" t="n">
-        <v>0.334677706003189</v>
+        <v>0.3524473036925</v>
       </c>
       <c r="I50" s="0" t="n">
-        <v>0.92633330821991</v>
+        <v>0.918333351612091</v>
       </c>
       <c r="J50" s="0" t="n">
-        <v>0.333207828862326</v>
+        <v>0.348026756797518</v>
       </c>
       <c r="K50" s="0" t="n">
-        <v>0.928714275360107</v>
+        <v>0.924571454524994</v>
       </c>
     </row>
     <row r="51" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5415,16 +5415,16 @@
         <v>14</v>
       </c>
       <c r="H51" s="0" t="n">
-        <v>0.34824499018987</v>
+        <v>0.346665494759878</v>
       </c>
       <c r="I51" s="0" t="n">
-        <v>0.923666656017303</v>
+        <v>0.914333343505859</v>
       </c>
       <c r="J51" s="0" t="n">
-        <v>0.349001034566334</v>
+        <v>0.342848844051361</v>
       </c>
       <c r="K51" s="0" t="n">
-        <v>0.924428582191467</v>
+        <v>0.918714284896851</v>
       </c>
     </row>
     <row r="52" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5450,16 +5450,16 @@
         <v>13</v>
       </c>
       <c r="H52" s="0" t="n">
-        <v>0.226479497432709</v>
+        <v>0.227439502000809</v>
       </c>
       <c r="I52" s="0" t="n">
-        <v>0.939333319664001</v>
+        <v>0.94133335351944</v>
       </c>
       <c r="J52" s="0" t="n">
-        <v>0.223021491186959</v>
+        <v>0.224613259894507</v>
       </c>
       <c r="K52" s="0" t="n">
-        <v>0.939142882823944</v>
+        <v>0.938857138156891</v>
       </c>
     </row>
     <row r="53" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5485,16 +5485,16 @@
         <v>14</v>
       </c>
       <c r="H53" s="0" t="n">
-        <v>0.208380135933558</v>
+        <v>0.205834187348684</v>
       </c>
       <c r="I53" s="0" t="n">
-        <v>0.939000010490418</v>
+        <v>0.939999997615814</v>
       </c>
       <c r="J53" s="0" t="n">
-        <v>0.200724188923836</v>
+        <v>0.197742706707546</v>
       </c>
       <c r="K53" s="0" t="n">
-        <v>0.943000018596649</v>
+        <v>0.944714307785034</v>
       </c>
     </row>
     <row r="54" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5520,16 +5520,16 @@
         <v>13</v>
       </c>
       <c r="H54" s="0" t="n">
-        <v>0.371081625461578</v>
+        <v>0.383815073808034</v>
       </c>
       <c r="I54" s="0" t="n">
-        <v>0.913666665554047</v>
+        <v>0.897666692733765</v>
       </c>
       <c r="J54" s="0" t="n">
-        <v>0.369333921977452</v>
+        <v>0.378153914587838</v>
       </c>
       <c r="K54" s="0" t="n">
-        <v>0.918571412563324</v>
+        <v>0.902428567409515</v>
       </c>
     </row>
     <row r="55" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5555,16 +5555,16 @@
         <v>14</v>
       </c>
       <c r="H55" s="0" t="n">
-        <v>0.380138559977213</v>
+        <v>0.353845947980881</v>
       </c>
       <c r="I55" s="0" t="n">
-        <v>0.914333343505859</v>
+        <v>0.920333325862884</v>
       </c>
       <c r="J55" s="0" t="n">
-        <v>0.382033529690334</v>
+        <v>0.350456443377903</v>
       </c>
       <c r="K55" s="0" t="n">
-        <v>0.912428557872772</v>
+        <v>0.923714280128479</v>
       </c>
     </row>
     <row r="56" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5590,16 +5590,16 @@
         <v>13</v>
       </c>
       <c r="H56" s="0" t="n">
-        <v>0.208822600841522</v>
+        <v>0.35569740541776</v>
       </c>
       <c r="I56" s="0" t="n">
-        <v>0.940666675567627</v>
+        <v>0.869666695594788</v>
       </c>
       <c r="J56" s="0" t="n">
-        <v>0.204636327419962</v>
+        <v>0.344208458151136</v>
       </c>
       <c r="K56" s="0" t="n">
-        <v>0.942428588867188</v>
+        <v>0.872428596019745</v>
       </c>
     </row>
     <row r="57" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5625,16 +5625,16 @@
         <v>14</v>
       </c>
       <c r="H57" s="0" t="n">
-        <v>0.234312083403269</v>
+        <v>0.207816593925158</v>
       </c>
       <c r="I57" s="0" t="n">
-        <v>0.934666693210602</v>
+        <v>0.93966668844223</v>
       </c>
       <c r="J57" s="0" t="n">
-        <v>0.230438928706305</v>
+        <v>0.200621120759419</v>
       </c>
       <c r="K57" s="0" t="n">
-        <v>0.936285734176636</v>
+        <v>0.943000018596649</v>
       </c>
     </row>
     <row r="58" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5660,16 +5660,16 @@
         <v>13</v>
       </c>
       <c r="H58" s="0" t="n">
-        <v>0.34958113304774</v>
+        <v>0.361150228023529</v>
       </c>
       <c r="I58" s="0" t="n">
-        <v>0.923666656017303</v>
+        <v>0.916999995708466</v>
       </c>
       <c r="J58" s="0" t="n">
-        <v>0.34808137021746</v>
+        <v>0.361085506916046</v>
       </c>
       <c r="K58" s="0" t="n">
-        <v>0.925428569316864</v>
+        <v>0.918714284896851</v>
       </c>
     </row>
     <row r="59" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5695,16 +5695,16 @@
         <v>14</v>
       </c>
       <c r="H59" s="0" t="n">
-        <v>0.332244011878967</v>
+        <v>0.346853925466537</v>
       </c>
       <c r="I59" s="0" t="n">
-        <v>0.917999982833862</v>
+        <v>0.92166668176651</v>
       </c>
       <c r="J59" s="0" t="n">
-        <v>0.329918271473476</v>
+        <v>0.345498359577996</v>
       </c>
       <c r="K59" s="0" t="n">
-        <v>0.923571407794952</v>
+        <v>0.924571454524994</v>
       </c>
     </row>
     <row r="60" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5730,16 +5730,16 @@
         <v>13</v>
       </c>
       <c r="H60" s="0" t="n">
-        <v>0.216558126012484</v>
+        <v>0.243628413995107</v>
       </c>
       <c r="I60" s="0" t="n">
-        <v>0.940333306789398</v>
+        <v>0.925333321094513</v>
       </c>
       <c r="J60" s="0" t="n">
-        <v>0.210078059366771</v>
+        <v>0.234693362236023</v>
       </c>
       <c r="K60" s="0" t="n">
-        <v>0.943428575992584</v>
+        <v>0.931571424007416</v>
       </c>
     </row>
     <row r="61" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5765,16 +5765,16 @@
         <v>14</v>
       </c>
       <c r="H61" s="0" t="n">
-        <v>0.255054944515228</v>
+        <v>0.234312072515488</v>
       </c>
       <c r="I61" s="0" t="n">
-        <v>0.913999974727631</v>
+        <v>0.9246666431427</v>
       </c>
       <c r="J61" s="0" t="n">
-        <v>0.245230011769703</v>
+        <v>0.224470975262778</v>
       </c>
       <c r="K61" s="0" t="n">
-        <v>0.922857165336609</v>
+        <v>0.930571436882019</v>
       </c>
     </row>
     <row r="62" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5800,16 +5800,16 @@
         <v>13</v>
       </c>
       <c r="H62" s="0" t="n">
-        <v>0.396521325429281</v>
+        <v>0.382211596012115</v>
       </c>
       <c r="I62" s="0" t="n">
-        <v>0.896000027656555</v>
+        <v>0.916000008583069</v>
       </c>
       <c r="J62" s="0" t="n">
-        <v>0.391631072998047</v>
+        <v>0.380180314949581</v>
       </c>
       <c r="K62" s="0" t="n">
-        <v>0.902142882347107</v>
+        <v>0.915142834186554</v>
       </c>
     </row>
     <row r="63" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5835,16 +5835,16 @@
         <v>14</v>
       </c>
       <c r="H63" s="0" t="n">
-        <v>0.382872438112895</v>
+        <v>0.363896644592285</v>
       </c>
       <c r="I63" s="0" t="n">
-        <v>0.904333353042602</v>
+        <v>0.916666686534882</v>
       </c>
       <c r="J63" s="0" t="n">
-        <v>0.378536360434123</v>
+        <v>0.360306254897799</v>
       </c>
       <c r="K63" s="0" t="n">
-        <v>0.90842854976654</v>
+        <v>0.921285688877106</v>
       </c>
     </row>
     <row r="64" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5870,16 +5870,16 @@
         <v>13</v>
       </c>
       <c r="H64" s="0" t="n">
-        <v>0.237261199951172</v>
+        <v>0.274150800784429</v>
       </c>
       <c r="I64" s="0" t="n">
-        <v>0.921000003814697</v>
+        <v>0.911333322525024</v>
       </c>
       <c r="J64" s="0" t="n">
-        <v>0.228202496494566</v>
+        <v>0.272720362663269</v>
       </c>
       <c r="K64" s="0" t="n">
-        <v>0.92900002002716</v>
+        <v>0.909428596496582</v>
       </c>
     </row>
     <row r="65" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5905,16 +5905,16 @@
         <v>14</v>
       </c>
       <c r="H65" s="0" t="n">
-        <v>0.251117352922757</v>
+        <v>0.302126441081365</v>
       </c>
       <c r="I65" s="0" t="n">
-        <v>0.926999986171722</v>
+        <v>0.894333362579346</v>
       </c>
       <c r="J65" s="0" t="n">
-        <v>0.251793773804392</v>
+        <v>0.292986754485539</v>
       </c>
       <c r="K65" s="0" t="n">
-        <v>0.921857118606567</v>
+        <v>0.896142840385437</v>
       </c>
     </row>
     <row r="66" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5940,16 +5940,16 @@
         <v>13</v>
       </c>
       <c r="H66" s="0" t="n">
-        <v>0.426247688770294</v>
+        <v>0.37724838868777</v>
       </c>
       <c r="I66" s="0" t="n">
-        <v>0.867666661739349</v>
+        <v>0.911666691303253</v>
       </c>
       <c r="J66" s="0" t="n">
-        <v>0.423075833320618</v>
+        <v>0.376720448357718</v>
       </c>
       <c r="K66" s="0" t="n">
-        <v>0.870000004768372</v>
+        <v>0.912999987602234</v>
       </c>
     </row>
     <row r="67" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5975,16 +5975,16 @@
         <v>14</v>
       </c>
       <c r="H67" s="0" t="n">
-        <v>0.387515997091929</v>
+        <v>0.368121719996134</v>
       </c>
       <c r="I67" s="0" t="n">
-        <v>0.891333341598511</v>
+        <v>0.91100001335144</v>
       </c>
       <c r="J67" s="0" t="n">
-        <v>0.383939791577203</v>
+        <v>0.365076045376914</v>
       </c>
       <c r="K67" s="0" t="n">
-        <v>0.893142879009247</v>
+        <v>0.91785717010498</v>
       </c>
     </row>
     <row r="68" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6010,16 +6010,16 @@
         <v>13</v>
       </c>
       <c r="H68" s="0" t="n">
-        <v>0.228204482714335</v>
+        <v>0.241127630313237</v>
       </c>
       <c r="I68" s="0" t="n">
-        <v>0.935000002384186</v>
+        <v>0.92166668176651</v>
       </c>
       <c r="J68" s="0" t="n">
-        <v>0.223276681934084</v>
+        <v>0.232921107769012</v>
       </c>
       <c r="K68" s="0" t="n">
-        <v>0.940142869949341</v>
+        <v>0.930571436882019</v>
       </c>
     </row>
     <row r="69" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6045,16 +6045,16 @@
         <v>14</v>
       </c>
       <c r="H69" s="0" t="n">
-        <v>0.225009219884872</v>
+        <v>0.22000136478742</v>
       </c>
       <c r="I69" s="0" t="n">
-        <v>0.935000002384186</v>
+        <v>0.936666667461395</v>
       </c>
       <c r="J69" s="0" t="n">
-        <v>0.220931942292622</v>
+        <v>0.214786430971963</v>
       </c>
       <c r="K69" s="0" t="n">
-        <v>0.938142836093903</v>
+        <v>0.939571440219879</v>
       </c>
     </row>
     <row r="70" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6080,16 +6080,16 @@
         <v>13</v>
       </c>
       <c r="H70" s="0" t="n">
-        <v>0.411885941187541</v>
+        <v>0.389848170200984</v>
       </c>
       <c r="I70" s="0" t="n">
-        <v>0.895333349704742</v>
+        <v>0.908333361148834</v>
       </c>
       <c r="J70" s="0" t="n">
-        <v>0.409314536094665</v>
+        <v>0.390015950339181</v>
       </c>
       <c r="K70" s="0" t="n">
-        <v>0.897571444511414</v>
+        <v>0.910000026226044</v>
       </c>
     </row>
     <row r="71" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6115,16 +6115,16 @@
         <v>14</v>
       </c>
       <c r="H71" s="0" t="n">
-        <v>0.390999825000763</v>
+        <v>0.379757301092148</v>
       </c>
       <c r="I71" s="0" t="n">
-        <v>0.911333322525024</v>
+        <v>0.914333343505859</v>
       </c>
       <c r="J71" s="0" t="n">
-        <v>0.390294927188328</v>
+        <v>0.381749787398747</v>
       </c>
       <c r="K71" s="0" t="n">
-        <v>0.906857132911682</v>
+        <v>0.913857161998749</v>
       </c>
     </row>
     <row r="72" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6150,16 +6150,16 @@
         <v>13</v>
       </c>
       <c r="H72" s="0" t="n">
-        <v>0.219612150589625</v>
+        <v>0.262376284241676</v>
       </c>
       <c r="I72" s="0" t="n">
-        <v>0.934000015258789</v>
+        <v>0.92333334684372</v>
       </c>
       <c r="J72" s="0" t="n">
-        <v>0.213104514360428</v>
+        <v>0.262440625241824</v>
       </c>
       <c r="K72" s="0" t="n">
-        <v>0.938428580760956</v>
+        <v>0.918285727500916</v>
       </c>
     </row>
     <row r="73" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6185,16 +6185,16 @@
         <v>14</v>
       </c>
       <c r="H73" s="0" t="n">
-        <v>0.228804169734319</v>
+        <v>0.227282543977102</v>
       </c>
       <c r="I73" s="0" t="n">
-        <v>0.925999999046326</v>
+        <v>0.924000024795532</v>
       </c>
       <c r="J73" s="0" t="n">
-        <v>0.224361992393221</v>
+        <v>0.219218091556004</v>
       </c>
       <c r="K73" s="0" t="n">
-        <v>0.930142879486084</v>
+        <v>0.935571432113647</v>
       </c>
     </row>
     <row r="74" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6220,16 +6220,16 @@
         <v>13</v>
       </c>
       <c r="H74" s="0" t="n">
-        <v>0.359750230471293</v>
+        <v>0.368130938609441</v>
       </c>
       <c r="I74" s="0" t="n">
-        <v>0.91566663980484</v>
+        <v>0.902666687965393</v>
       </c>
       <c r="J74" s="0" t="n">
-        <v>0.35746675157547</v>
+        <v>0.363875020538058</v>
       </c>
       <c r="K74" s="0" t="n">
-        <v>0.923714280128479</v>
+        <v>0.906571447849274</v>
       </c>
     </row>
     <row r="75" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6255,16 +6255,16 @@
         <v>14</v>
       </c>
       <c r="H75" s="0" t="n">
-        <v>0.365663797458013</v>
+        <v>0.384305910587311</v>
       </c>
       <c r="I75" s="0" t="n">
-        <v>0.922333359718323</v>
+        <v>0.894333362579346</v>
       </c>
       <c r="J75" s="0" t="n">
-        <v>0.36636816573143</v>
+        <v>0.377453508547374</v>
       </c>
       <c r="K75" s="0" t="n">
-        <v>0.917428553104401</v>
+        <v>0.899285733699799</v>
       </c>
     </row>
     <row r="76" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6290,16 +6290,16 @@
         <v>13</v>
       </c>
       <c r="H76" s="0" t="n">
-        <v>0.224223335981369</v>
+        <v>0.231663346290588</v>
       </c>
       <c r="I76" s="0" t="n">
-        <v>0.933000028133392</v>
+        <v>0.930000007152557</v>
       </c>
       <c r="J76" s="0" t="n">
-        <v>0.214929399422237</v>
+        <v>0.218957163538252</v>
       </c>
       <c r="K76" s="0" t="n">
-        <v>0.939000010490418</v>
+        <v>0.939285695552826</v>
       </c>
     </row>
     <row r="77" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6325,16 +6325,16 @@
         <v>14</v>
       </c>
       <c r="H77" s="0" t="n">
-        <v>0.210160547971725</v>
+        <v>0.2241703363657</v>
       </c>
       <c r="I77" s="0" t="n">
-        <v>0.934666693210602</v>
+        <v>0.935999989509582</v>
       </c>
       <c r="J77" s="0" t="n">
-        <v>0.202221604960305</v>
+        <v>0.222309242146356</v>
       </c>
       <c r="K77" s="0" t="n">
-        <v>0.942285716533661</v>
+        <v>0.936428546905518</v>
       </c>
     </row>
     <row r="78" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6360,16 +6360,16 @@
         <v>13</v>
       </c>
       <c r="H78" s="0" t="n">
-        <v>0.421221359968185</v>
+        <v>0.371679518381755</v>
       </c>
       <c r="I78" s="0" t="n">
-        <v>0.894999980926514</v>
+        <v>0.919666647911072</v>
       </c>
       <c r="J78" s="0" t="n">
-        <v>0.419389252935137</v>
+        <v>0.36850263772692</v>
       </c>
       <c r="K78" s="0" t="n">
-        <v>0.898142874240875</v>
+        <v>0.923285722732544</v>
       </c>
     </row>
     <row r="79" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6395,16 +6395,16 @@
         <v>14</v>
       </c>
       <c r="H79" s="0" t="n">
-        <v>0.388775419871012</v>
+        <v>0.377193548123042</v>
       </c>
       <c r="I79" s="0" t="n">
-        <v>0.914333343505859</v>
+        <v>0.91566663980484</v>
       </c>
       <c r="J79" s="0" t="n">
-        <v>0.388480956077576</v>
+        <v>0.374134573119027</v>
       </c>
       <c r="K79" s="0" t="n">
-        <v>0.916857123374939</v>
+        <v>0.921714305877686</v>
       </c>
     </row>
     <row r="80" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6430,16 +6430,16 @@
         <v>13</v>
       </c>
       <c r="H80" s="0" t="n">
-        <v>0.275354315916697</v>
+        <v>0.247890452226003</v>
       </c>
       <c r="I80" s="0" t="n">
-        <v>0.908333361148834</v>
+        <v>0.915000021457672</v>
       </c>
       <c r="J80" s="0" t="n">
-        <v>0.263625918933323</v>
+        <v>0.235992417744228</v>
       </c>
       <c r="K80" s="0" t="n">
-        <v>0.914285719394684</v>
+        <v>0.923857152462006</v>
       </c>
     </row>
     <row r="81" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6465,16 +6465,16 @@
         <v>14</v>
       </c>
       <c r="H81" s="0" t="n">
-        <v>0.20885466504097</v>
+        <v>0.220736651659012</v>
       </c>
       <c r="I81" s="0" t="n">
-        <v>0.941999971866608</v>
+        <v>0.930333316326141</v>
       </c>
       <c r="J81" s="0" t="n">
-        <v>0.203727586507797</v>
+        <v>0.211020152534757</v>
       </c>
       <c r="K81" s="0" t="n">
-        <v>0.944571435451508</v>
+        <v>0.937142848968506</v>
       </c>
     </row>
     <row r="82" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6500,16 +6500,16 @@
         <v>13</v>
       </c>
       <c r="H82" s="0" t="n">
-        <v>0.350588565746943</v>
+        <v>0.360405212163925</v>
       </c>
       <c r="I82" s="0" t="n">
-        <v>0.920333325862884</v>
+        <v>0.912333309650421</v>
       </c>
       <c r="J82" s="0" t="n">
-        <v>0.34801957651547</v>
+        <v>0.356578038011278</v>
       </c>
       <c r="K82" s="0" t="n">
-        <v>0.925571441650391</v>
+        <v>0.916428565979004</v>
       </c>
     </row>
     <row r="83" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6535,16 +6535,16 @@
         <v>14</v>
       </c>
       <c r="H83" s="0" t="n">
-        <v>0.347665606021881</v>
+        <v>0.348777864297231</v>
       </c>
       <c r="I83" s="0" t="n">
-        <v>0.9246666431427</v>
+        <v>0.921333312988281</v>
       </c>
       <c r="J83" s="0" t="n">
-        <v>0.345515759910856</v>
+        <v>0.346664656196322</v>
       </c>
       <c r="K83" s="0" t="n">
-        <v>0.926857113838196</v>
+        <v>0.923857152462006</v>
       </c>
     </row>
     <row r="84" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6570,16 +6570,16 @@
         <v>13</v>
       </c>
       <c r="H84" s="0" t="n">
-        <v>0.23223689464728</v>
+        <v>0.215443024396896</v>
       </c>
       <c r="I84" s="0" t="n">
-        <v>0.926666676998138</v>
+        <v>0.938666641712189</v>
       </c>
       <c r="J84" s="0" t="n">
-        <v>0.223565514632634</v>
+        <v>0.211309518609728</v>
       </c>
       <c r="K84" s="0" t="n">
-        <v>0.934000015258789</v>
+        <v>0.943428575992584</v>
       </c>
     </row>
     <row r="85" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6605,16 +6605,16 @@
         <v>14</v>
       </c>
       <c r="H85" s="0" t="n">
-        <v>0.217605488300323</v>
+        <v>0.254791224241257</v>
       </c>
       <c r="I85" s="0" t="n">
-        <v>0.936999976634979</v>
+        <v>0.914666652679443</v>
       </c>
       <c r="J85" s="0" t="n">
-        <v>0.210619213819504</v>
+        <v>0.242287046466555</v>
       </c>
       <c r="K85" s="0" t="n">
-        <v>0.939285695552826</v>
+        <v>0.922571420669556</v>
       </c>
     </row>
     <row r="86" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6640,16 +6640,16 @@
         <v>13</v>
       </c>
       <c r="H86" s="0" t="n">
-        <v>0.40787154452006</v>
+        <v>0.382261133352915</v>
       </c>
       <c r="I86" s="0" t="n">
-        <v>0.893666684627533</v>
+        <v>0.918666660785675</v>
       </c>
       <c r="J86" s="0" t="n">
-        <v>0.402480103220259</v>
+        <v>0.37987844654492</v>
       </c>
       <c r="K86" s="0" t="n">
-        <v>0.896285712718964</v>
+        <v>0.921857118606567</v>
       </c>
     </row>
     <row r="87" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6675,16 +6675,16 @@
         <v>14</v>
       </c>
       <c r="H87" s="0" t="n">
-        <v>0.378153872807821</v>
+        <v>0.371727196534475</v>
       </c>
       <c r="I87" s="0" t="n">
-        <v>0.912999987602234</v>
+        <v>0.92333334684372</v>
       </c>
       <c r="J87" s="0" t="n">
-        <v>0.376117945637022</v>
+        <v>0.371299611057554</v>
       </c>
       <c r="K87" s="0" t="n">
-        <v>0.918714284896851</v>
+        <v>0.925142884254456</v>
       </c>
     </row>
     <row r="88" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6710,16 +6710,16 @@
         <v>13</v>
       </c>
       <c r="H88" s="0" t="n">
-        <v>0.208006936192512</v>
+        <v>0.219767930428187</v>
       </c>
       <c r="I88" s="0" t="n">
-        <v>0.94133335351944</v>
+        <v>0.93233335018158</v>
       </c>
       <c r="J88" s="0" t="n">
-        <v>0.204307347672326</v>
+        <v>0.210549012882369</v>
       </c>
       <c r="K88" s="0" t="n">
-        <v>0.944285690784454</v>
+        <v>0.939000010490418</v>
       </c>
     </row>
     <row r="89" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6745,16 +6745,16 @@
         <v>14</v>
       </c>
       <c r="H89" s="0" t="n">
-        <v>0.214648969093958</v>
+        <v>0.217665575345357</v>
       </c>
       <c r="I89" s="0" t="n">
-        <v>0.935999989509582</v>
+        <v>0.928333342075348</v>
       </c>
       <c r="J89" s="0" t="n">
-        <v>0.206582593917847</v>
+        <v>0.209480180774416</v>
       </c>
       <c r="K89" s="0" t="n">
-        <v>0.939285695552826</v>
+        <v>0.938428580760956</v>
       </c>
     </row>
     <row r="90" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6780,16 +6780,16 @@
         <v>13</v>
       </c>
       <c r="H90" s="0" t="n">
-        <v>0.379171047528585</v>
+        <v>0.380781707922618</v>
       </c>
       <c r="I90" s="0" t="n">
-        <v>0.906333327293396</v>
+        <v>0.911666691303253</v>
       </c>
       <c r="J90" s="0" t="n">
-        <v>0.375890211241586</v>
+        <v>0.378384525435311</v>
       </c>
       <c r="K90" s="0" t="n">
-        <v>0.912142872810364</v>
+        <v>0.919714272022247</v>
       </c>
     </row>
     <row r="91" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6815,16 +6815,16 @@
         <v>14</v>
       </c>
       <c r="H91" s="0" t="n">
-        <v>0.368468528588613</v>
+        <v>0.371147766749064</v>
       </c>
       <c r="I91" s="0" t="n">
-        <v>0.917666673660278</v>
+        <v>0.911666691303253</v>
       </c>
       <c r="J91" s="0" t="n">
-        <v>0.366296351364681</v>
+        <v>0.36764104110854</v>
       </c>
       <c r="K91" s="0" t="n">
-        <v>0.921285688877106</v>
+        <v>0.916999995708466</v>
       </c>
     </row>
     <row r="92" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6850,16 +6850,16 @@
         <v>13</v>
       </c>
       <c r="H92" s="0" t="n">
-        <v>0.228361433108648</v>
+        <v>0.25031141714255</v>
       </c>
       <c r="I92" s="0" t="n">
-        <v>0.935666680335998</v>
+        <v>0.9246666431427</v>
       </c>
       <c r="J92" s="0" t="n">
-        <v>0.221109276465007</v>
+        <v>0.240952480554581</v>
       </c>
       <c r="K92" s="0" t="n">
-        <v>0.940285742282867</v>
+        <v>0.933428585529327</v>
       </c>
     </row>
     <row r="93" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6885,16 +6885,16 @@
         <v>14</v>
       </c>
       <c r="H93" s="0" t="n">
-        <v>0.243564177592595</v>
+        <v>0.221780767520269</v>
       </c>
       <c r="I93" s="0" t="n">
-        <v>0.922666668891907</v>
+        <v>0.940666675567627</v>
       </c>
       <c r="J93" s="0" t="n">
-        <v>0.235135666370392</v>
+        <v>0.216467010566166</v>
       </c>
       <c r="K93" s="0" t="n">
-        <v>0.930285692214966</v>
+        <v>0.945285737514496</v>
       </c>
     </row>
     <row r="94" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6920,16 +6920,16 @@
         <v>13</v>
       </c>
       <c r="H94" s="0" t="n">
-        <v>0.4178889828523</v>
+        <v>0.410448911348979</v>
       </c>
       <c r="I94" s="0" t="n">
-        <v>0.902333319187164</v>
+        <v>0.902999997138977</v>
       </c>
       <c r="J94" s="0" t="n">
-        <v>0.421758496556963</v>
+        <v>0.40825140946252</v>
       </c>
       <c r="K94" s="0" t="n">
-        <v>0.898285686969757</v>
+        <v>0.909857153892517</v>
       </c>
     </row>
     <row r="95" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6955,16 +6955,16 @@
         <v>14</v>
       </c>
       <c r="H95" s="0" t="n">
-        <v>0.405159673690796</v>
+        <v>0.393083138545354</v>
       </c>
       <c r="I95" s="0" t="n">
-        <v>0.907000005245209</v>
+        <v>0.917666673660278</v>
       </c>
       <c r="J95" s="0" t="n">
-        <v>0.401417593445097</v>
+        <v>0.391681107929775</v>
       </c>
       <c r="K95" s="0" t="n">
-        <v>0.914142847061157</v>
+        <v>0.917999982833862</v>
       </c>
     </row>
     <row r="96" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6990,16 +6990,16 @@
         <v>13</v>
       </c>
       <c r="H96" s="0" t="n">
-        <v>0.221520654161771</v>
+        <v>0.232129051486651</v>
       </c>
       <c r="I96" s="0" t="n">
-        <v>0.94133335351944</v>
+        <v>0.935666680335998</v>
       </c>
       <c r="J96" s="0" t="n">
-        <v>0.214497170295034</v>
+        <v>0.230422410556248</v>
       </c>
       <c r="K96" s="0" t="n">
-        <v>0.941571414470673</v>
+        <v>0.935428559780121</v>
       </c>
     </row>
     <row r="97" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7025,22 +7025,22 @@
         <v>14</v>
       </c>
       <c r="H97" s="0" t="n">
-        <v>0.237162657578786</v>
+        <v>0.240224388281504</v>
       </c>
       <c r="I97" s="0" t="n">
-        <v>0.934333324432373</v>
+        <v>0.934666693210602</v>
       </c>
       <c r="J97" s="0" t="n">
-        <v>0.233724620768002</v>
+        <v>0.237753629752568</v>
       </c>
       <c r="K97" s="0" t="n">
-        <v>0.935285687446594</v>
+        <v>0.931142866611481</v>
       </c>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
-  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader/>
     <oddFooter/>
@@ -7056,7 +7056,7 @@
   <dimension ref="A1:J49"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B6" activeCellId="0" sqref="B6"/>
+      <selection pane="topLeft" activeCell="B1" activeCellId="0" sqref="B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -7123,13 +7123,13 @@
         <v>13</v>
       </c>
       <c r="G2" s="0" t="n">
-        <v>0.747823240280151</v>
+        <v>0.748363310337067</v>
       </c>
       <c r="H2" s="0" t="n">
         <v>0.5</v>
       </c>
       <c r="I2" s="0" t="n">
-        <v>0.747823236942291</v>
+        <v>0.748363315105438</v>
       </c>
       <c r="J2" s="0" t="n">
         <v>0.5</v>
@@ -7155,13 +7155,13 @@
         <v>14</v>
       </c>
       <c r="G3" s="0" t="n">
-        <v>0.75919680929184</v>
+        <v>0.758664314746857</v>
       </c>
       <c r="H3" s="0" t="n">
         <v>0.5</v>
       </c>
       <c r="I3" s="0" t="n">
-        <v>0.759196817874908</v>
+        <v>0.758664312362671</v>
       </c>
       <c r="J3" s="0" t="n">
         <v>0.5</v>
@@ -7187,16 +7187,16 @@
         <v>13</v>
       </c>
       <c r="G4" s="0" t="n">
-        <v>0.2883288615942</v>
+        <v>0.299001935482025</v>
       </c>
       <c r="H4" s="0" t="n">
-        <v>0.938000023365021</v>
+        <v>0.933000028133392</v>
       </c>
       <c r="I4" s="0" t="n">
-        <v>0.275865921974182</v>
+        <v>0.287058310747147</v>
       </c>
       <c r="J4" s="0" t="n">
-        <v>0.94412499666214</v>
+        <v>0.939750015735626</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7219,16 +7219,16 @@
         <v>14</v>
       </c>
       <c r="G5" s="0" t="n">
-        <v>0.243805783748627</v>
+        <v>0.254553254842758</v>
       </c>
       <c r="H5" s="0" t="n">
-        <v>0.934499979019165</v>
+        <v>0.936999976634979</v>
       </c>
       <c r="I5" s="0" t="n">
-        <v>0.226166714310646</v>
+        <v>0.243904583573341</v>
       </c>
       <c r="J5" s="0" t="n">
-        <v>0.947499990463257</v>
+        <v>0.939625024795532</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7251,13 +7251,13 @@
         <v>13</v>
       </c>
       <c r="G6" s="0" t="n">
-        <v>0.958388414382934</v>
+        <v>0.958986484527588</v>
       </c>
       <c r="H6" s="0" t="n">
         <v>0.5</v>
       </c>
       <c r="I6" s="0" t="n">
-        <v>0.958388401985168</v>
+        <v>0.958986491203308</v>
       </c>
       <c r="J6" s="0" t="n">
         <v>0.5</v>
@@ -7283,13 +7283,13 @@
         <v>14</v>
       </c>
       <c r="G7" s="0" t="n">
-        <v>0.952908237457275</v>
+        <v>0.955089427947998</v>
       </c>
       <c r="H7" s="0" t="n">
         <v>0.5</v>
       </c>
       <c r="I7" s="0" t="n">
-        <v>0.952908243179321</v>
+        <v>0.955089419364929</v>
       </c>
       <c r="J7" s="0" t="n">
         <v>0.5</v>
@@ -7315,16 +7315,16 @@
         <v>13</v>
       </c>
       <c r="G8" s="0" t="n">
-        <v>0.264523823857307</v>
+        <v>0.271960218906403</v>
       </c>
       <c r="H8" s="0" t="n">
-        <v>0.92849999666214</v>
+        <v>0.927999973297119</v>
       </c>
       <c r="I8" s="0" t="n">
-        <v>0.244652054786682</v>
+        <v>0.255944187283516</v>
       </c>
       <c r="J8" s="0" t="n">
-        <v>0.937125027179718</v>
+        <v>0.9356250166893</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7347,16 +7347,16 @@
         <v>14</v>
       </c>
       <c r="G9" s="0" t="n">
-        <v>0.272615177631378</v>
+        <v>0.249737315654755</v>
       </c>
       <c r="H9" s="0" t="n">
-        <v>0.929499983787537</v>
+        <v>0.933000028133392</v>
       </c>
       <c r="I9" s="0" t="n">
-        <v>0.263258239865303</v>
+        <v>0.239162832140922</v>
       </c>
       <c r="J9" s="0" t="n">
-        <v>0.928250014781952</v>
+        <v>0.941375017166138</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7379,13 +7379,13 @@
         <v>13</v>
       </c>
       <c r="G10" s="0" t="n">
-        <v>0.748315537929535</v>
+        <v>0.747409896373749</v>
       </c>
       <c r="H10" s="0" t="n">
         <v>0.5</v>
       </c>
       <c r="I10" s="0" t="n">
-        <v>0.748315537452698</v>
+        <v>0.74740990447998</v>
       </c>
       <c r="J10" s="0" t="n">
         <v>0.5</v>
@@ -7411,13 +7411,13 @@
         <v>14</v>
       </c>
       <c r="G11" s="0" t="n">
-        <v>0.757507089614868</v>
+        <v>0.758312119960785</v>
       </c>
       <c r="H11" s="0" t="n">
         <v>0.5</v>
       </c>
       <c r="I11" s="0" t="n">
-        <v>0.757507085323334</v>
+        <v>0.758312126159668</v>
       </c>
       <c r="J11" s="0" t="n">
         <v>0.5</v>
@@ -7443,16 +7443,16 @@
         <v>13</v>
       </c>
       <c r="G12" s="0" t="n">
-        <v>0.320251178026199</v>
+        <v>0.304663670778275</v>
       </c>
       <c r="H12" s="0" t="n">
-        <v>0.935000002384186</v>
+        <v>0.933000028133392</v>
       </c>
       <c r="I12" s="0" t="n">
-        <v>0.309683604001999</v>
+        <v>0.291323084950447</v>
       </c>
       <c r="J12" s="0" t="n">
-        <v>0.936874985694885</v>
+        <v>0.937375009059906</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7475,16 +7475,16 @@
         <v>14</v>
       </c>
       <c r="G13" s="0" t="n">
-        <v>0.246609142184257</v>
+        <v>0.252514816880226</v>
       </c>
       <c r="H13" s="0" t="n">
-        <v>0.935000002384186</v>
+        <v>0.936999976634979</v>
       </c>
       <c r="I13" s="0" t="n">
-        <v>0.229927255868912</v>
+        <v>0.237514841914177</v>
       </c>
       <c r="J13" s="0" t="n">
-        <v>0.945375025272369</v>
+        <v>0.943250000476837</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7507,13 +7507,13 @@
         <v>13</v>
       </c>
       <c r="G14" s="0" t="n">
-        <v>0.959054000854492</v>
+        <v>0.958651481151581</v>
       </c>
       <c r="H14" s="0" t="n">
         <v>0.5</v>
       </c>
       <c r="I14" s="0" t="n">
-        <v>0.959053999423981</v>
+        <v>0.958651485919952</v>
       </c>
       <c r="J14" s="0" t="n">
         <v>0.5</v>
@@ -7539,13 +7539,13 @@
         <v>14</v>
       </c>
       <c r="G15" s="0" t="n">
-        <v>0.955378368854523</v>
+        <v>0.954877562999725</v>
       </c>
       <c r="H15" s="0" t="n">
         <v>0.5</v>
       </c>
       <c r="I15" s="0" t="n">
-        <v>0.955378366947174</v>
+        <v>0.95487756729126</v>
       </c>
       <c r="J15" s="0" t="n">
         <v>0.5</v>
@@ -7571,16 +7571,16 @@
         <v>13</v>
       </c>
       <c r="G16" s="0" t="n">
-        <v>0.341036706447601</v>
+        <v>0.284741742134094</v>
       </c>
       <c r="H16" s="0" t="n">
-        <v>0.889500021934509</v>
+        <v>0.929499983787537</v>
       </c>
       <c r="I16" s="0" t="n">
-        <v>0.32240395629406</v>
+        <v>0.279379980444908</v>
       </c>
       <c r="J16" s="0" t="n">
-        <v>0.89962500333786</v>
+        <v>0.932375013828278</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7603,16 +7603,16 @@
         <v>14</v>
       </c>
       <c r="G17" s="0" t="n">
-        <v>0.27623533642292</v>
+        <v>0.257329559445381</v>
       </c>
       <c r="H17" s="0" t="n">
-        <v>0.927999973297119</v>
+        <v>0.934000015258789</v>
       </c>
       <c r="I17" s="0" t="n">
-        <v>0.2680836404562</v>
+        <v>0.243499027132988</v>
       </c>
       <c r="J17" s="0" t="n">
-        <v>0.927625000476837</v>
+        <v>0.942624986171722</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7635,13 +7635,13 @@
         <v>13</v>
       </c>
       <c r="G18" s="0" t="n">
-        <v>0.745287204265595</v>
+        <v>0.744782767295837</v>
       </c>
       <c r="H18" s="0" t="n">
         <v>0.5</v>
       </c>
       <c r="I18" s="0" t="n">
-        <v>0.745287206172943</v>
+        <v>0.744782755851746</v>
       </c>
       <c r="J18" s="0" t="n">
         <v>0.5</v>
@@ -7667,13 +7667,13 @@
         <v>14</v>
       </c>
       <c r="G19" s="0" t="n">
-        <v>0.757993042469025</v>
+        <v>0.757628699779511</v>
       </c>
       <c r="H19" s="0" t="n">
         <v>0.5</v>
       </c>
       <c r="I19" s="0" t="n">
-        <v>0.757993042469025</v>
+        <v>0.75762869644165</v>
       </c>
       <c r="J19" s="0" t="n">
         <v>0.5</v>
@@ -7699,16 +7699,16 @@
         <v>13</v>
       </c>
       <c r="G20" s="0" t="n">
-        <v>0.408929956436157</v>
+        <v>0.367089020013809</v>
       </c>
       <c r="H20" s="0" t="n">
-        <v>0.917500019073486</v>
+        <v>0.925999999046326</v>
       </c>
       <c r="I20" s="0" t="n">
-        <v>0.399445913314819</v>
+        <v>0.356701052546501</v>
       </c>
       <c r="J20" s="0" t="n">
-        <v>0.924749970436096</v>
+        <v>0.928624987602234</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7731,16 +7731,16 @@
         <v>14</v>
       </c>
       <c r="G21" s="0" t="n">
-        <v>0.272684471487999</v>
+        <v>0.273289060592651</v>
       </c>
       <c r="H21" s="0" t="n">
-        <v>0.936500012874603</v>
+        <v>0.935500025749206</v>
       </c>
       <c r="I21" s="0" t="n">
-        <v>0.257730488181114</v>
+        <v>0.258087850809097</v>
       </c>
       <c r="J21" s="0" t="n">
-        <v>0.939499974250793</v>
+        <v>0.942875027656555</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7763,13 +7763,13 @@
         <v>13</v>
       </c>
       <c r="G22" s="0" t="n">
-        <v>0.95929008436203</v>
+        <v>0.958700475215912</v>
       </c>
       <c r="H22" s="0" t="n">
         <v>0.5</v>
       </c>
       <c r="I22" s="0" t="n">
-        <v>0.959290076732635</v>
+        <v>0.95870048046112</v>
       </c>
       <c r="J22" s="0" t="n">
         <v>0.5</v>
@@ -7795,13 +7795,13 @@
         <v>14</v>
       </c>
       <c r="G23" s="0" t="n">
-        <v>0.957194868564605</v>
+        <v>0.957083261013031</v>
       </c>
       <c r="H23" s="0" t="n">
         <v>0.5</v>
       </c>
       <c r="I23" s="0" t="n">
-        <v>0.957194865703583</v>
+        <v>0.957083247661591</v>
       </c>
       <c r="J23" s="0" t="n">
         <v>0.5</v>
@@ -7827,16 +7827,16 @@
         <v>13</v>
       </c>
       <c r="G24" s="0" t="n">
-        <v>0.303884113073349</v>
+        <v>0.329455232143402</v>
       </c>
       <c r="H24" s="0" t="n">
-        <v>0.924000024795532</v>
+        <v>0.916999995708466</v>
       </c>
       <c r="I24" s="0" t="n">
-        <v>0.289341721653938</v>
+        <v>0.325300665140152</v>
       </c>
       <c r="J24" s="0" t="n">
-        <v>0.931625008583069</v>
+        <v>0.92312502861023</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7859,16 +7859,16 @@
         <v>14</v>
       </c>
       <c r="G25" s="0" t="n">
-        <v>0.28630752658844</v>
+        <v>0.286399074316025</v>
       </c>
       <c r="H25" s="0" t="n">
-        <v>0.925499975681305</v>
+        <v>0.927500009536743</v>
       </c>
       <c r="I25" s="0" t="n">
-        <v>0.269512717723846</v>
+        <v>0.274141061425209</v>
       </c>
       <c r="J25" s="0" t="n">
-        <v>0.932375013828278</v>
+        <v>0.931874990463257</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7891,16 +7891,16 @@
         <v>13</v>
       </c>
       <c r="G26" s="0" t="n">
-        <v>0.448917640924454</v>
+        <v>0.443909831285477</v>
       </c>
       <c r="H26" s="0" t="n">
-        <v>0.913999974727631</v>
+        <v>0.930999994277954</v>
       </c>
       <c r="I26" s="0" t="n">
-        <v>0.437140718460083</v>
+        <v>0.430257043361664</v>
       </c>
       <c r="J26" s="0" t="n">
-        <v>0.918624997138977</v>
+        <v>0.933749973773956</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7923,13 +7923,13 @@
         <v>14</v>
       </c>
       <c r="G27" s="0" t="n">
-        <v>0.757357899188995</v>
+        <v>0.757627296447754</v>
       </c>
       <c r="H27" s="0" t="n">
         <v>0.5</v>
       </c>
       <c r="I27" s="0" t="n">
-        <v>0.757357894897461</v>
+        <v>0.757627300262451</v>
       </c>
       <c r="J27" s="0" t="n">
         <v>0.5</v>
@@ -7955,16 +7955,16 @@
         <v>13</v>
       </c>
       <c r="G28" s="0" t="n">
-        <v>0.334403213739395</v>
+        <v>0.255555143594742</v>
       </c>
       <c r="H28" s="0" t="n">
-        <v>0.90200001001358</v>
+        <v>0.935000002384186</v>
       </c>
       <c r="I28" s="0" t="n">
-        <v>0.313541996240616</v>
+        <v>0.23825813138485</v>
       </c>
       <c r="J28" s="0" t="n">
-        <v>0.909500002861023</v>
+        <v>0.943125009536743</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7987,16 +7987,16 @@
         <v>14</v>
       </c>
       <c r="G29" s="0" t="n">
-        <v>0.250327939391136</v>
+        <v>0.248014150857925</v>
       </c>
       <c r="H29" s="0" t="n">
-        <v>0.935000002384186</v>
+        <v>0.945999979972839</v>
       </c>
       <c r="I29" s="0" t="n">
-        <v>0.236422462821007</v>
+        <v>0.23827304649353</v>
       </c>
       <c r="J29" s="0" t="n">
-        <v>0.943374991416931</v>
+        <v>0.945375025272369</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8019,16 +8019,16 @@
         <v>13</v>
       </c>
       <c r="G30" s="0" t="n">
-        <v>0.613697776794434</v>
+        <v>0.673762343406677</v>
       </c>
       <c r="H30" s="0" t="n">
-        <v>0.919000029563904</v>
+        <v>0.90149998664856</v>
       </c>
       <c r="I30" s="0" t="n">
-        <v>0.606707140445709</v>
+        <v>0.661369676589966</v>
       </c>
       <c r="J30" s="0" t="n">
-        <v>0.922625005245209</v>
+        <v>0.902999997138977</v>
       </c>
     </row>
     <row r="31" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8051,13 +8051,13 @@
         <v>14</v>
       </c>
       <c r="G31" s="0" t="n">
-        <v>0.957284511566162</v>
+        <v>0.957013902664185</v>
       </c>
       <c r="H31" s="0" t="n">
         <v>0.5</v>
       </c>
       <c r="I31" s="0" t="n">
-        <v>0.957284512996674</v>
+        <v>0.957013917446136</v>
       </c>
       <c r="J31" s="0" t="n">
         <v>0.5</v>
@@ -8083,16 +8083,16 @@
         <v>13</v>
       </c>
       <c r="G32" s="0" t="n">
-        <v>0.259499148488045</v>
+        <v>0.495707171440125</v>
       </c>
       <c r="H32" s="0" t="n">
-        <v>0.931999981403351</v>
+        <v>0.84500002861023</v>
       </c>
       <c r="I32" s="0" t="n">
-        <v>0.246714547872543</v>
+        <v>0.475872305631638</v>
       </c>
       <c r="J32" s="0" t="n">
-        <v>0.937125027179718</v>
+        <v>0.847000002861023</v>
       </c>
     </row>
     <row r="33" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8115,16 +8115,16 @@
         <v>14</v>
       </c>
       <c r="G33" s="0" t="n">
-        <v>0.295740118265152</v>
+        <v>0.319104312300682</v>
       </c>
       <c r="H33" s="0" t="n">
-        <v>0.91949999332428</v>
+        <v>0.902499973773956</v>
       </c>
       <c r="I33" s="0" t="n">
-        <v>0.28906101000309</v>
+        <v>0.310474044799805</v>
       </c>
       <c r="J33" s="0" t="n">
-        <v>0.918874979019165</v>
+        <v>0.902625024318695</v>
       </c>
     </row>
     <row r="34" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8147,16 +8147,16 @@
         <v>13</v>
       </c>
       <c r="G34" s="0" t="n">
-        <v>0.436774150848389</v>
+        <v>0.420211155891418</v>
       </c>
       <c r="H34" s="0" t="n">
-        <v>0.925499975681305</v>
+        <v>0.934499979019165</v>
       </c>
       <c r="I34" s="0" t="n">
-        <v>0.425744944572449</v>
+        <v>0.413783486127853</v>
       </c>
       <c r="J34" s="0" t="n">
-        <v>0.930000007152557</v>
+        <v>0.934000015258789</v>
       </c>
     </row>
     <row r="35" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8179,13 +8179,13 @@
         <v>14</v>
       </c>
       <c r="G35" s="0" t="n">
-        <v>0.757453843593597</v>
+        <v>0.757454643726349</v>
       </c>
       <c r="H35" s="0" t="n">
         <v>0.5</v>
       </c>
       <c r="I35" s="0" t="n">
-        <v>0.757453838825226</v>
+        <v>0.757454642295837</v>
       </c>
       <c r="J35" s="0" t="n">
         <v>0.5</v>
@@ -8211,16 +8211,16 @@
         <v>13</v>
       </c>
       <c r="G36" s="0" t="n">
-        <v>0.261573042273521</v>
+        <v>0.309753794908524</v>
       </c>
       <c r="H36" s="0" t="n">
-        <v>0.933499991893768</v>
+        <v>0.925000011920929</v>
       </c>
       <c r="I36" s="0" t="n">
-        <v>0.245942875981331</v>
+        <v>0.300203478097916</v>
       </c>
       <c r="J36" s="0" t="n">
-        <v>0.943000018596649</v>
+        <v>0.91949999332428</v>
       </c>
     </row>
     <row r="37" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8243,16 +8243,16 @@
         <v>14</v>
       </c>
       <c r="G37" s="0" t="n">
-        <v>0.26768114066124</v>
+        <v>0.265509078621864</v>
       </c>
       <c r="H37" s="0" t="n">
-        <v>0.925000011920929</v>
+        <v>0.941500008106232</v>
       </c>
       <c r="I37" s="0" t="n">
-        <v>0.249802260756493</v>
+        <v>0.249360290646553</v>
       </c>
       <c r="J37" s="0" t="n">
-        <v>0.937125027179718</v>
+        <v>0.943499982357025</v>
       </c>
     </row>
     <row r="38" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8275,16 +8275,16 @@
         <v>13</v>
       </c>
       <c r="G38" s="0" t="n">
-        <v>0.960200342655182</v>
+        <v>0.630535008907318</v>
       </c>
       <c r="H38" s="0" t="n">
-        <v>0.5</v>
+        <v>0.922999978065491</v>
       </c>
       <c r="I38" s="0" t="n">
-        <v>0.96020034122467</v>
+        <v>0.625293658733368</v>
       </c>
       <c r="J38" s="0" t="n">
-        <v>0.5</v>
+        <v>0.923375010490418</v>
       </c>
     </row>
     <row r="39" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8307,13 +8307,13 @@
         <v>14</v>
       </c>
       <c r="G39" s="0" t="n">
-        <v>0.959417634010315</v>
+        <v>0.959353028774261</v>
       </c>
       <c r="H39" s="0" t="n">
         <v>0.5</v>
       </c>
       <c r="I39" s="0" t="n">
-        <v>0.959417612552643</v>
+        <v>0.959353047847748</v>
       </c>
       <c r="J39" s="0" t="n">
         <v>0.5</v>
@@ -8339,16 +8339,16 @@
         <v>13</v>
       </c>
       <c r="G40" s="0" t="n">
-        <v>0.322374869823456</v>
+        <v>0.313423741221428</v>
       </c>
       <c r="H40" s="0" t="n">
-        <v>0.90149998664856</v>
+        <v>0.904500007629394</v>
       </c>
       <c r="I40" s="0" t="n">
-        <v>0.306258792161942</v>
+        <v>0.292774426817894</v>
       </c>
       <c r="J40" s="0" t="n">
-        <v>0.912374973297119</v>
+        <v>0.914250016212463</v>
       </c>
     </row>
     <row r="41" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8371,16 +8371,16 @@
         <v>14</v>
       </c>
       <c r="G41" s="0" t="n">
-        <v>0.269704145908356</v>
+        <v>0.263261821389198</v>
       </c>
       <c r="H41" s="0" t="n">
-        <v>0.925000011920929</v>
+        <v>0.938000023365021</v>
       </c>
       <c r="I41" s="0" t="n">
-        <v>0.250705793619156</v>
+        <v>0.251838491797447</v>
       </c>
       <c r="J41" s="0" t="n">
-        <v>0.933624982833862</v>
+        <v>0.938374996185303</v>
       </c>
     </row>
     <row r="42" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8403,13 +8403,13 @@
         <v>13</v>
       </c>
       <c r="G42" s="0" t="n">
-        <v>0.750171948432922</v>
+        <v>0.750448637485504</v>
       </c>
       <c r="H42" s="0" t="n">
         <v>0.5</v>
       </c>
       <c r="I42" s="0" t="n">
-        <v>0.7501719622612</v>
+        <v>0.750448642730713</v>
       </c>
       <c r="J42" s="0" t="n">
         <v>0.5</v>
@@ -8435,13 +8435,13 @@
         <v>14</v>
       </c>
       <c r="G43" s="0" t="n">
-        <v>0.756743455886841</v>
+        <v>0.756697943210602</v>
       </c>
       <c r="H43" s="0" t="n">
         <v>0.5</v>
       </c>
       <c r="I43" s="0" t="n">
-        <v>0.756743464946747</v>
+        <v>0.75669794511795</v>
       </c>
       <c r="J43" s="0" t="n">
         <v>0.5</v>
@@ -8467,16 +8467,16 @@
         <v>13</v>
       </c>
       <c r="G44" s="0" t="n">
-        <v>0.340614898920059</v>
+        <v>0.340352861881256</v>
       </c>
       <c r="H44" s="0" t="n">
-        <v>0.909500002861023</v>
+        <v>0.908500015735626</v>
       </c>
       <c r="I44" s="0" t="n">
-        <v>0.326332659959793</v>
+        <v>0.322695174455643</v>
       </c>
       <c r="J44" s="0" t="n">
-        <v>0.920125007629394</v>
+        <v>0.921374976634979</v>
       </c>
     </row>
     <row r="45" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8499,16 +8499,16 @@
         <v>14</v>
       </c>
       <c r="G45" s="0" t="n">
-        <v>0.313579295754433</v>
+        <v>0.364967654466629</v>
       </c>
       <c r="H45" s="0" t="n">
-        <v>0.91949999332428</v>
+        <v>0.916499972343445</v>
       </c>
       <c r="I45" s="0" t="n">
-        <v>0.293744499206543</v>
+        <v>0.35341640329361</v>
       </c>
       <c r="J45" s="0" t="n">
-        <v>0.930124998092651</v>
+        <v>0.923624992370606</v>
       </c>
     </row>
     <row r="46" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8531,13 +8531,13 @@
         <v>13</v>
       </c>
       <c r="G46" s="0" t="n">
-        <v>0.960658284664154</v>
+        <v>0.958638525485992</v>
       </c>
       <c r="H46" s="0" t="n">
         <v>0.5</v>
       </c>
       <c r="I46" s="0" t="n">
-        <v>0.960658296585083</v>
+        <v>0.95863854265213</v>
       </c>
       <c r="J46" s="0" t="n">
         <v>0.5</v>
@@ -8563,13 +8563,13 @@
         <v>14</v>
       </c>
       <c r="G47" s="0" t="n">
-        <v>0.959699601173401</v>
+        <v>0.9597334151268</v>
       </c>
       <c r="H47" s="0" t="n">
         <v>0.5</v>
       </c>
       <c r="I47" s="0" t="n">
-        <v>0.959699617385864</v>
+        <v>0.959733423709869</v>
       </c>
       <c r="J47" s="0" t="n">
         <v>0.5</v>
@@ -8595,16 +8595,16 @@
         <v>13</v>
       </c>
       <c r="G48" s="0" t="n">
-        <v>0.294367319703102</v>
+        <v>0.327694650411606</v>
       </c>
       <c r="H48" s="0" t="n">
-        <v>0.925000011920929</v>
+        <v>0.923500001430512</v>
       </c>
       <c r="I48" s="0" t="n">
-        <v>0.280574481010437</v>
+        <v>0.318209723949432</v>
       </c>
       <c r="J48" s="0" t="n">
-        <v>0.934374988079071</v>
+        <v>0.927749991416931</v>
       </c>
     </row>
     <row r="49" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8627,22 +8627,22 @@
         <v>14</v>
       </c>
       <c r="G49" s="0" t="n">
-        <v>0.37517649936676</v>
+        <v>0.292322716593742</v>
       </c>
       <c r="H49" s="0" t="n">
-        <v>0.879499971866608</v>
+        <v>0.925499975681305</v>
       </c>
       <c r="I49" s="0" t="n">
-        <v>0.358034564971924</v>
+        <v>0.276606714963913</v>
       </c>
       <c r="J49" s="0" t="n">
-        <v>0.887624979019165</v>
+        <v>0.933000028133392</v>
       </c>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
-  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader/>
     <oddFooter/>
@@ -8658,7 +8658,7 @@
   <dimension ref="A1:J49"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B3" activeCellId="0" sqref="B3"/>
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -8725,13 +8725,13 @@
         <v>13</v>
       </c>
       <c r="G2" s="0" t="n">
-        <v>0.747925696055094</v>
+        <v>0.74719217745463</v>
       </c>
       <c r="H2" s="0" t="n">
         <v>0.5</v>
       </c>
       <c r="I2" s="0" t="n">
-        <v>0.747925699302128</v>
+        <v>0.747192170892443</v>
       </c>
       <c r="J2" s="0" t="n">
         <v>0.5</v>
@@ -8757,13 +8757,13 @@
         <v>14</v>
       </c>
       <c r="G3" s="0" t="n">
-        <v>0.758463994979858</v>
+        <v>0.758042685349782</v>
       </c>
       <c r="H3" s="0" t="n">
         <v>0.5</v>
       </c>
       <c r="I3" s="0" t="n">
-        <v>0.758463990756444</v>
+        <v>0.758042691503252</v>
       </c>
       <c r="J3" s="0" t="n">
         <v>0.5</v>
@@ -8789,16 +8789,16 @@
         <v>13</v>
       </c>
       <c r="G4" s="0" t="n">
-        <v>0.33959225432078</v>
+        <v>0.325937265555064</v>
       </c>
       <c r="H4" s="0" t="n">
-        <v>0.926999986171722</v>
+        <v>0.919333338737488</v>
       </c>
       <c r="I4" s="0" t="n">
-        <v>0.329669993094036</v>
+        <v>0.313497086252485</v>
       </c>
       <c r="J4" s="0" t="n">
-        <v>0.931714296340942</v>
+        <v>0.92900002002716</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8821,16 +8821,16 @@
         <v>14</v>
       </c>
       <c r="G5" s="0" t="n">
-        <v>0.253971535364787</v>
+        <v>0.251565595825513</v>
       </c>
       <c r="H5" s="0" t="n">
-        <v>0.940999984741211</v>
+        <v>0.931999981403351</v>
       </c>
       <c r="I5" s="0" t="n">
-        <v>0.244938878246716</v>
+        <v>0.23846228827749</v>
       </c>
       <c r="J5" s="0" t="n">
-        <v>0.943714261054993</v>
+        <v>0.944857120513916</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8853,13 +8853,13 @@
         <v>13</v>
       </c>
       <c r="G6" s="0" t="n">
-        <v>0.95969903532664</v>
+        <v>0.959476754029592</v>
       </c>
       <c r="H6" s="0" t="n">
         <v>0.5</v>
       </c>
       <c r="I6" s="0" t="n">
-        <v>0.959699035099574</v>
+        <v>0.9594767571858</v>
       </c>
       <c r="J6" s="0" t="n">
         <v>0.5</v>
@@ -8885,13 +8885,13 @@
         <v>14</v>
       </c>
       <c r="G7" s="0" t="n">
-        <v>0.949557826201121</v>
+        <v>0.952847754001617</v>
       </c>
       <c r="H7" s="0" t="n">
         <v>0.5</v>
       </c>
       <c r="I7" s="0" t="n">
-        <v>0.949557825769697</v>
+        <v>0.952847749710083</v>
       </c>
       <c r="J7" s="0" t="n">
         <v>0.5</v>
@@ -8917,16 +8917,16 @@
         <v>13</v>
       </c>
       <c r="G8" s="0" t="n">
-        <v>0.443715074936549</v>
+        <v>0.314566646099091</v>
       </c>
       <c r="H8" s="0" t="n">
-        <v>0.84633332490921</v>
+        <v>0.913999974727631</v>
       </c>
       <c r="I8" s="0" t="n">
-        <v>0.423552821908678</v>
+        <v>0.299612622806004</v>
       </c>
       <c r="J8" s="0" t="n">
-        <v>0.862285733222961</v>
+        <v>0.919142842292785</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8949,16 +8949,16 @@
         <v>14</v>
       </c>
       <c r="G9" s="0" t="n">
-        <v>0.346811107079188</v>
+        <v>0.280703989028931</v>
       </c>
       <c r="H9" s="0" t="n">
-        <v>0.896333336830139</v>
+        <v>0.917999982833862</v>
       </c>
       <c r="I9" s="0" t="n">
-        <v>0.332701563085828</v>
+        <v>0.264067743710109</v>
       </c>
       <c r="J9" s="0" t="n">
-        <v>0.898857116699219</v>
+        <v>0.929571449756622</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8981,13 +8981,13 @@
         <v>13</v>
       </c>
       <c r="G10" s="0" t="n">
-        <v>0.746638978799184</v>
+        <v>0.746581953048706</v>
       </c>
       <c r="H10" s="0" t="n">
         <v>0.5</v>
       </c>
       <c r="I10" s="0" t="n">
-        <v>0.746638972418649</v>
+        <v>0.746581953866141</v>
       </c>
       <c r="J10" s="0" t="n">
         <v>0.5</v>
@@ -9013,13 +9013,13 @@
         <v>14</v>
       </c>
       <c r="G11" s="0" t="n">
-        <v>0.757549694379171</v>
+        <v>0.758404768308004</v>
       </c>
       <c r="H11" s="0" t="n">
         <v>0.5</v>
       </c>
       <c r="I11" s="0" t="n">
-        <v>0.757549691336495</v>
+        <v>0.758404768058232</v>
       </c>
       <c r="J11" s="0" t="n">
         <v>0.5</v>
@@ -9045,16 +9045,16 @@
         <v>13</v>
       </c>
       <c r="G12" s="0" t="n">
-        <v>0.321689346392949</v>
+        <v>0.3056115843455</v>
       </c>
       <c r="H12" s="0" t="n">
-        <v>0.929666638374329</v>
+        <v>0.934000015258789</v>
       </c>
       <c r="I12" s="0" t="n">
-        <v>0.311902730328696</v>
+        <v>0.29833640221187</v>
       </c>
       <c r="J12" s="0" t="n">
-        <v>0.936285734176636</v>
+        <v>0.937285721302032</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9077,16 +9077,16 @@
         <v>14</v>
       </c>
       <c r="G13" s="0" t="n">
-        <v>0.25391365524133</v>
+        <v>0.267569567282995</v>
       </c>
       <c r="H13" s="0" t="n">
-        <v>0.939333319664001</v>
+        <v>0.931666672229767</v>
       </c>
       <c r="I13" s="0" t="n">
-        <v>0.249816443477358</v>
+        <v>0.265485024554389</v>
       </c>
       <c r="J13" s="0" t="n">
-        <v>0.941857159137726</v>
+        <v>0.933857142925262</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9109,13 +9109,13 @@
         <v>13</v>
       </c>
       <c r="G14" s="0" t="n">
-        <v>0.957500893115997</v>
+        <v>0.958605227152506</v>
       </c>
       <c r="H14" s="0" t="n">
         <v>0.5</v>
       </c>
       <c r="I14" s="0" t="n">
-        <v>0.957500890254974</v>
+        <v>0.958605229513986</v>
       </c>
       <c r="J14" s="0" t="n">
         <v>0.5</v>
@@ -9141,13 +9141,13 @@
         <v>14</v>
       </c>
       <c r="G15" s="0" t="n">
-        <v>0.952146049976349</v>
+        <v>0.955136361757914</v>
       </c>
       <c r="H15" s="0" t="n">
         <v>0.5</v>
       </c>
       <c r="I15" s="0" t="n">
-        <v>0.952146051679339</v>
+        <v>0.955136363642556</v>
       </c>
       <c r="J15" s="0" t="n">
         <v>0.5</v>
@@ -9173,16 +9173,16 @@
         <v>13</v>
       </c>
       <c r="G16" s="0" t="n">
-        <v>0.338500174204508</v>
+        <v>0.298712355653445</v>
       </c>
       <c r="H16" s="0" t="n">
-        <v>0.90200001001358</v>
+        <v>0.926999986171722</v>
       </c>
       <c r="I16" s="0" t="n">
-        <v>0.327595625059945</v>
+        <v>0.295008774331638</v>
       </c>
       <c r="J16" s="0" t="n">
-        <v>0.907285690307617</v>
+        <v>0.922142863273621</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9205,16 +9205,16 @@
         <v>14</v>
       </c>
       <c r="G17" s="0" t="n">
-        <v>0.280578448255857</v>
+        <v>0.267832153836886</v>
       </c>
       <c r="H17" s="0" t="n">
-        <v>0.924333333969116</v>
+        <v>0.928333342075348</v>
       </c>
       <c r="I17" s="0" t="n">
-        <v>0.276696352566991</v>
+        <v>0.256838853154864</v>
       </c>
       <c r="J17" s="0" t="n">
-        <v>0.924000024795532</v>
+        <v>0.938142836093903</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9237,13 +9237,13 @@
         <v>13</v>
       </c>
       <c r="G18" s="0" t="n">
-        <v>0.74922283188502</v>
+        <v>0.747782168706258</v>
       </c>
       <c r="H18" s="0" t="n">
         <v>0.5</v>
       </c>
       <c r="I18" s="0" t="n">
-        <v>0.749222833565303</v>
+        <v>0.74778217458725</v>
       </c>
       <c r="J18" s="0" t="n">
         <v>0.5</v>
@@ -9269,13 +9269,13 @@
         <v>14</v>
       </c>
       <c r="G19" s="0" t="n">
-        <v>0.757730781714121</v>
+        <v>0.757017790635427</v>
       </c>
       <c r="H19" s="0" t="n">
         <v>0.5</v>
       </c>
       <c r="I19" s="0" t="n">
-        <v>0.757730779307229</v>
+        <v>0.757017791816166</v>
       </c>
       <c r="J19" s="0" t="n">
         <v>0.5</v>
@@ -9301,16 +9301,16 @@
         <v>13</v>
       </c>
       <c r="G20" s="0" t="n">
-        <v>0.426297099908193</v>
+        <v>0.451638631820679</v>
       </c>
       <c r="H20" s="0" t="n">
-        <v>0.921999990940094</v>
+        <v>0.917666673660278</v>
       </c>
       <c r="I20" s="0" t="n">
-        <v>0.419929772921971</v>
+        <v>0.440904422215053</v>
       </c>
       <c r="J20" s="0" t="n">
-        <v>0.929142832756042</v>
+        <v>0.921285688877106</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9333,16 +9333,16 @@
         <v>14</v>
       </c>
       <c r="G21" s="0" t="n">
-        <v>0.323718147675196</v>
+        <v>0.272102823098501</v>
       </c>
       <c r="H21" s="0" t="n">
-        <v>0.910000026226044</v>
+        <v>0.937333345413208</v>
       </c>
       <c r="I21" s="0" t="n">
-        <v>0.305708924668176</v>
+        <v>0.263834939718246</v>
       </c>
       <c r="J21" s="0" t="n">
-        <v>0.919142842292785</v>
+        <v>0.940571427345276</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9365,13 +9365,13 @@
         <v>13</v>
       </c>
       <c r="G22" s="0" t="n">
-        <v>0.958830873807271</v>
+        <v>0.959120774110158</v>
       </c>
       <c r="H22" s="0" t="n">
         <v>0.5</v>
       </c>
       <c r="I22" s="0" t="n">
-        <v>0.958830870492118</v>
+        <v>0.959120773656028</v>
       </c>
       <c r="J22" s="0" t="n">
         <v>0.5</v>
@@ -9397,13 +9397,13 @@
         <v>14</v>
       </c>
       <c r="G23" s="0" t="n">
-        <v>0.955600673993428</v>
+        <v>0.955078813870748</v>
       </c>
       <c r="H23" s="0" t="n">
         <v>0.5</v>
       </c>
       <c r="I23" s="0" t="n">
-        <v>0.955600669452122</v>
+        <v>0.955078809738159</v>
       </c>
       <c r="J23" s="0" t="n">
         <v>0.5</v>
@@ -9429,16 +9429,16 @@
         <v>13</v>
       </c>
       <c r="G24" s="0" t="n">
-        <v>0.305994187513987</v>
+        <v>0.300057793299357</v>
       </c>
       <c r="H24" s="0" t="n">
-        <v>0.92166668176651</v>
+        <v>0.92900002002716</v>
       </c>
       <c r="I24" s="0" t="n">
-        <v>0.298532590866089</v>
+        <v>0.300325382573264</v>
       </c>
       <c r="J24" s="0" t="n">
-        <v>0.926999986171722</v>
+        <v>0.930428564548492</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9461,16 +9461,16 @@
         <v>14</v>
       </c>
       <c r="G25" s="0" t="n">
-        <v>0.281697633862495</v>
+        <v>0.290083535393079</v>
       </c>
       <c r="H25" s="0" t="n">
-        <v>0.930999994277954</v>
+        <v>0.931333363056183</v>
       </c>
       <c r="I25" s="0" t="n">
-        <v>0.277271619456155</v>
+        <v>0.285021963255746</v>
       </c>
       <c r="J25" s="0" t="n">
-        <v>0.933142840862274</v>
+        <v>0.934428572654724</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9493,16 +9493,16 @@
         <v>13</v>
       </c>
       <c r="G26" s="0" t="n">
-        <v>0.410316255410512</v>
+        <v>0.444913477182388</v>
       </c>
       <c r="H26" s="0" t="n">
-        <v>0.929333329200745</v>
+        <v>0.915333330631256</v>
       </c>
       <c r="I26" s="0" t="n">
-        <v>0.405515655074801</v>
+        <v>0.438292214938573</v>
       </c>
       <c r="J26" s="0" t="n">
-        <v>0.932428598403931</v>
+        <v>0.920571446418762</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9525,13 +9525,13 @@
         <v>14</v>
       </c>
       <c r="G27" s="0" t="n">
-        <v>0.7576400791804</v>
+        <v>0.757415558497111</v>
       </c>
       <c r="H27" s="0" t="n">
         <v>0.5</v>
       </c>
       <c r="I27" s="0" t="n">
-        <v>0.757640075002398</v>
+        <v>0.757415570327214</v>
       </c>
       <c r="J27" s="0" t="n">
         <v>0.5</v>
@@ -9557,16 +9557,16 @@
         <v>13</v>
       </c>
       <c r="G28" s="0" t="n">
-        <v>0.275625624060631</v>
+        <v>0.276429855982463</v>
       </c>
       <c r="H28" s="0" t="n">
-        <v>0.935999989509582</v>
+        <v>0.935666680335998</v>
       </c>
       <c r="I28" s="0" t="n">
-        <v>0.272742462975638</v>
+        <v>0.27244462123939</v>
       </c>
       <c r="J28" s="0" t="n">
-        <v>0.932571411132812</v>
+        <v>0.933000028133392</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9589,16 +9589,16 @@
         <v>14</v>
       </c>
       <c r="G29" s="0" t="n">
-        <v>0.245342417915662</v>
+        <v>0.245192629535993</v>
       </c>
       <c r="H29" s="0" t="n">
-        <v>0.93533331155777</v>
+        <v>0.943000018596649</v>
       </c>
       <c r="I29" s="0" t="n">
-        <v>0.236713841540473</v>
+        <v>0.242807505403246</v>
       </c>
       <c r="J29" s="0" t="n">
-        <v>0.942285716533661</v>
+        <v>0.943285703659058</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9621,16 +9621,16 @@
         <v>13</v>
       </c>
       <c r="G30" s="0" t="n">
-        <v>0.638914686203003</v>
+        <v>0.659655719916026</v>
       </c>
       <c r="H30" s="0" t="n">
-        <v>0.918333351612091</v>
+        <v>0.910666644573212</v>
       </c>
       <c r="I30" s="0" t="n">
-        <v>0.642357826777867</v>
+        <v>0.65483503471102</v>
       </c>
       <c r="J30" s="0" t="n">
-        <v>0.914714276790619</v>
+        <v>0.915857136249542</v>
       </c>
     </row>
     <row r="31" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9653,13 +9653,13 @@
         <v>14</v>
       </c>
       <c r="G31" s="0" t="n">
-        <v>0.960380900065104</v>
+        <v>0.958606345335642</v>
       </c>
       <c r="H31" s="0" t="n">
         <v>0.5</v>
       </c>
       <c r="I31" s="0" t="n">
-        <v>0.960380898884364</v>
+        <v>0.958606341975076</v>
       </c>
       <c r="J31" s="0" t="n">
         <v>0.5</v>
@@ -9685,16 +9685,16 @@
         <v>13</v>
       </c>
       <c r="G32" s="0" t="n">
-        <v>0.300723976929982</v>
+        <v>0.28001748085022</v>
       </c>
       <c r="H32" s="0" t="n">
-        <v>0.913666665554047</v>
+        <v>0.921999990940094</v>
       </c>
       <c r="I32" s="0" t="n">
-        <v>0.289603519916534</v>
+        <v>0.273741225038256</v>
       </c>
       <c r="J32" s="0" t="n">
-        <v>0.915571451187134</v>
+        <v>0.926285743713379</v>
       </c>
     </row>
     <row r="33" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9717,16 +9717,16 @@
         <v>14</v>
       </c>
       <c r="G33" s="0" t="n">
-        <v>0.27037975859642</v>
+        <v>0.266202876647313</v>
       </c>
       <c r="H33" s="0" t="n">
-        <v>0.92333334684372</v>
+        <v>0.936666667461395</v>
       </c>
       <c r="I33" s="0" t="n">
-        <v>0.262695036445345</v>
+        <v>0.264269998329026</v>
       </c>
       <c r="J33" s="0" t="n">
-        <v>0.927999973297119</v>
+        <v>0.934714257717133</v>
       </c>
     </row>
     <row r="34" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9749,16 +9749,16 @@
         <v>13</v>
       </c>
       <c r="G34" s="0" t="n">
-        <v>0.751293583234151</v>
+        <v>0.459630708694458</v>
       </c>
       <c r="H34" s="0" t="n">
-        <v>0.5</v>
+        <v>0.922999978065491</v>
       </c>
       <c r="I34" s="0" t="n">
-        <v>0.751293591431209</v>
+        <v>0.464698668479919</v>
       </c>
       <c r="J34" s="0" t="n">
-        <v>0.5</v>
+        <v>0.918714284896851</v>
       </c>
     </row>
     <row r="35" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9781,13 +9781,13 @@
         <v>14</v>
       </c>
       <c r="G35" s="0" t="n">
-        <v>0.757487970193227</v>
+        <v>0.757219851811727</v>
       </c>
       <c r="H35" s="0" t="n">
         <v>0.5</v>
       </c>
       <c r="I35" s="0" t="n">
-        <v>0.757487958703722</v>
+        <v>0.757219847542899</v>
       </c>
       <c r="J35" s="0" t="n">
         <v>0.5</v>
@@ -9813,16 +9813,16 @@
         <v>13</v>
       </c>
       <c r="G36" s="0" t="n">
-        <v>0.293895457188288</v>
+        <v>0.27481937734286</v>
       </c>
       <c r="H36" s="0" t="n">
-        <v>0.931666672229767</v>
+        <v>0.927666664123535</v>
       </c>
       <c r="I36" s="0" t="n">
-        <v>0.285534521171025</v>
+        <v>0.265704419851303</v>
       </c>
       <c r="J36" s="0" t="n">
-        <v>0.934285700321198</v>
+        <v>0.934428572654724</v>
       </c>
     </row>
     <row r="37" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9845,16 +9845,16 @@
         <v>14</v>
       </c>
       <c r="G37" s="0" t="n">
-        <v>0.252914042433103</v>
+        <v>0.262420405666033</v>
       </c>
       <c r="H37" s="0" t="n">
-        <v>0.938333332538605</v>
+        <v>0.939333319664001</v>
       </c>
       <c r="I37" s="0" t="n">
-        <v>0.246928704942976</v>
+        <v>0.256834028107779</v>
       </c>
       <c r="J37" s="0" t="n">
-        <v>0.939857125282288</v>
+        <v>0.942285716533661</v>
       </c>
     </row>
     <row r="38" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9877,16 +9877,16 @@
         <v>13</v>
       </c>
       <c r="G38" s="0" t="n">
-        <v>0.618084998289744</v>
+        <v>0.654638373374939</v>
       </c>
       <c r="H38" s="0" t="n">
-        <v>0.924333333969116</v>
+        <v>0.913666665554047</v>
       </c>
       <c r="I38" s="0" t="n">
-        <v>0.620071976252965</v>
+        <v>0.651273856503623</v>
       </c>
       <c r="J38" s="0" t="n">
-        <v>0.922428548336029</v>
+        <v>0.919857144355774</v>
       </c>
     </row>
     <row r="39" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9909,13 +9909,13 @@
         <v>14</v>
       </c>
       <c r="G39" s="0" t="n">
-        <v>0.958879281997681</v>
+        <v>0.958496551831563</v>
       </c>
       <c r="H39" s="0" t="n">
         <v>0.5</v>
       </c>
       <c r="I39" s="0" t="n">
-        <v>0.958879278114864</v>
+        <v>0.958496542726244</v>
       </c>
       <c r="J39" s="0" t="n">
         <v>0.5</v>
@@ -9941,16 +9941,16 @@
         <v>13</v>
       </c>
       <c r="G40" s="0" t="n">
-        <v>0.264575867692629</v>
+        <v>0.274367015083631</v>
       </c>
       <c r="H40" s="0" t="n">
-        <v>0.93966668844223</v>
+        <v>0.933000028133392</v>
       </c>
       <c r="I40" s="0" t="n">
-        <v>0.261247141872133</v>
+        <v>0.273643433707101</v>
       </c>
       <c r="J40" s="0" t="n">
-        <v>0.938142836093903</v>
+        <v>0.931857168674469</v>
       </c>
     </row>
     <row r="41" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9973,16 +9973,16 @@
         <v>14</v>
       </c>
       <c r="G41" s="0" t="n">
-        <v>0.251922290444374</v>
+        <v>0.298018720785777</v>
       </c>
       <c r="H41" s="0" t="n">
-        <v>0.938000023365021</v>
+        <v>0.911333322525024</v>
       </c>
       <c r="I41" s="0" t="n">
-        <v>0.246679123333522</v>
+        <v>0.290698943751199</v>
       </c>
       <c r="J41" s="0" t="n">
-        <v>0.938142836093903</v>
+        <v>0.918571412563324</v>
       </c>
     </row>
     <row r="42" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10005,13 +10005,13 @@
         <v>13</v>
       </c>
       <c r="G42" s="0" t="n">
-        <v>0.750702773412069</v>
+        <v>0.749862723827362</v>
       </c>
       <c r="H42" s="0" t="n">
         <v>0.5</v>
       </c>
       <c r="I42" s="0" t="n">
-        <v>0.750702771118709</v>
+        <v>0.749862723963601</v>
       </c>
       <c r="J42" s="0" t="n">
         <v>0.5</v>
@@ -10037,13 +10037,13 @@
         <v>14</v>
       </c>
       <c r="G43" s="0" t="n">
-        <v>0.756831190109253</v>
+        <v>0.757115004221598</v>
       </c>
       <c r="H43" s="0" t="n">
         <v>0.5</v>
       </c>
       <c r="I43" s="0" t="n">
-        <v>0.756831198011126</v>
+        <v>0.757115003313337</v>
       </c>
       <c r="J43" s="0" t="n">
         <v>0.5</v>
@@ -10069,16 +10069,16 @@
         <v>13</v>
       </c>
       <c r="G44" s="0" t="n">
-        <v>0.312558339913686</v>
+        <v>0.307399609406789</v>
       </c>
       <c r="H44" s="0" t="n">
-        <v>0.922666668891907</v>
+        <v>0.925000011920929</v>
       </c>
       <c r="I44" s="0" t="n">
-        <v>0.304423428603581</v>
+        <v>0.303337532349995</v>
       </c>
       <c r="J44" s="0" t="n">
-        <v>0.930000007152557</v>
+        <v>0.929428577423096</v>
       </c>
     </row>
     <row r="45" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10101,16 +10101,16 @@
         <v>14</v>
       </c>
       <c r="G45" s="0" t="n">
-        <v>0.358393885334333</v>
+        <v>0.317178945700328</v>
       </c>
       <c r="H45" s="0" t="n">
-        <v>0.901666641235352</v>
+        <v>0.9200000166893</v>
       </c>
       <c r="I45" s="0" t="n">
-        <v>0.360994425296783</v>
+        <v>0.309098294598716</v>
       </c>
       <c r="J45" s="0" t="n">
-        <v>0.896285712718964</v>
+        <v>0.923285722732544</v>
       </c>
     </row>
     <row r="46" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10133,13 +10133,13 @@
         <v>13</v>
       </c>
       <c r="G46" s="0" t="n">
-        <v>0.960294078667959</v>
+        <v>0.960796804587046</v>
       </c>
       <c r="H46" s="0" t="n">
         <v>0.5</v>
       </c>
       <c r="I46" s="0" t="n">
-        <v>0.960294076306479</v>
+        <v>0.960796788419996</v>
       </c>
       <c r="J46" s="0" t="n">
         <v>0.5</v>
@@ -10165,13 +10165,13 @@
         <v>14</v>
       </c>
       <c r="G47" s="0" t="n">
-        <v>0.959774819056193</v>
+        <v>0.958831212361654</v>
       </c>
       <c r="H47" s="0" t="n">
         <v>0.5</v>
       </c>
       <c r="I47" s="0" t="n">
-        <v>0.959774840899876</v>
+        <v>0.958831224032811</v>
       </c>
       <c r="J47" s="0" t="n">
         <v>0.5</v>
@@ -10197,16 +10197,16 @@
         <v>13</v>
       </c>
       <c r="G48" s="0" t="n">
-        <v>0.319752821524938</v>
+        <v>0.492147960821787</v>
       </c>
       <c r="H48" s="0" t="n">
-        <v>0.92900002002716</v>
+        <v>0.822666645050049</v>
       </c>
       <c r="I48" s="0" t="n">
-        <v>0.322591039861951</v>
+        <v>0.480542439869472</v>
       </c>
       <c r="J48" s="0" t="n">
-        <v>0.930000007152557</v>
+        <v>0.836571455001831</v>
       </c>
     </row>
     <row r="49" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10229,22 +10229,22 @@
         <v>14</v>
       </c>
       <c r="G49" s="0" t="n">
-        <v>0.301371071656545</v>
+        <v>0.285221944173177</v>
       </c>
       <c r="H49" s="0" t="n">
-        <v>0.928333342075348</v>
+        <v>0.928666651248932</v>
       </c>
       <c r="I49" s="0" t="n">
-        <v>0.300298548936844</v>
+        <v>0.279791041680745</v>
       </c>
       <c r="J49" s="0" t="n">
-        <v>0.932285726070404</v>
+        <v>0.929857134819031</v>
       </c>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
-  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader/>
     <oddFooter/>
